--- a/Eugenio/EXCEL.xlsx
+++ b/Eugenio/EXCEL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="4605" windowWidth="20640" windowHeight="10050"/>
+    <workbookView xWindow="390" yWindow="4605" windowWidth="20640" windowHeight="10050" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="COMPRAS" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="303">
   <si>
     <t>CANT</t>
   </si>
@@ -641,9 +641,6 @@
     <t>Precio vta</t>
   </si>
   <si>
-    <t>,</t>
-  </si>
-  <si>
     <t>total iva</t>
   </si>
   <si>
@@ -933,6 +930,42 @@
   </si>
   <si>
     <t>idDetCompr</t>
+  </si>
+  <si>
+    <t>venta</t>
+  </si>
+  <si>
+    <t>Stock - = cantidad</t>
+  </si>
+  <si>
+    <t>compras</t>
+  </si>
+  <si>
+    <t>precio = actualiza</t>
+  </si>
+  <si>
+    <t>else</t>
+  </si>
+  <si>
+    <t>Stock += cantidad</t>
+  </si>
+  <si>
+    <t>Producto.modificarProducto(VTA/COM, CANTIDAD, PRECIO=0, IDPROD)</t>
+  </si>
+  <si>
+    <t>cargarProducto()</t>
+  </si>
+  <si>
+    <t>detalleVta/detalleCmp</t>
+  </si>
+  <si>
+    <t>if=&gt;</t>
+  </si>
+  <si>
+    <t>else if =&gt;</t>
+  </si>
+  <si>
+    <t>if idProducto =&gt; Exista</t>
   </si>
 </sst>
 </file>
@@ -1216,7 +1249,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1268,7 +1301,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
@@ -1376,36 +1408,6 @@
     <xf numFmtId="16" fontId="19" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1441,6 +1443,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3034,7 +3066,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -3050,554 +3082,554 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="87" t="s">
+        <v>262</v>
+      </c>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2" s="32" t="s">
         <v>263</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
-      <c r="M1" s="73"/>
-      <c r="N1" s="73"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>291</v>
-      </c>
-      <c r="B2" s="33" t="s">
+      <c r="C2" s="32" t="s">
         <v>264</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="D2" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="E2" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>267</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="J2" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="K2" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="L2" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="M2" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="N2" s="32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="35">
+        <v>1</v>
+      </c>
+      <c r="B3" s="35">
+        <v>2</v>
+      </c>
+      <c r="C3" s="35">
+        <v>14</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="35">
+        <v>4</v>
+      </c>
+      <c r="F3" s="72">
+        <v>44124</v>
+      </c>
+      <c r="G3" s="72">
+        <v>44124</v>
+      </c>
+      <c r="H3" s="35">
+        <v>8</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="J3" s="75">
+        <v>105</v>
+      </c>
+      <c r="K3" s="38">
+        <v>100</v>
+      </c>
+      <c r="L3" s="40">
+        <v>120</v>
+      </c>
+      <c r="M3" s="38">
+        <v>21</v>
+      </c>
+      <c r="N3" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="35">
+        <v>2</v>
+      </c>
+      <c r="B4" s="35">
+        <v>2</v>
+      </c>
+      <c r="C4" s="35">
+        <v>14</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="35">
+        <v>4</v>
+      </c>
+      <c r="F4" s="72">
+        <v>44124</v>
+      </c>
+      <c r="G4" s="72">
+        <v>44124</v>
+      </c>
+      <c r="H4" s="35">
+        <v>5</v>
+      </c>
+      <c r="I4" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="J4" s="75">
+        <v>105</v>
+      </c>
+      <c r="K4" s="38">
+        <v>100</v>
+      </c>
+      <c r="L4" s="40">
+        <v>150</v>
+      </c>
+      <c r="M4" s="38">
+        <v>10.5</v>
+      </c>
+      <c r="N4" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="35">
+        <v>3</v>
+      </c>
+      <c r="B5" s="35">
+        <v>2</v>
+      </c>
+      <c r="C5" s="35">
+        <v>14</v>
+      </c>
+      <c r="D5" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="35">
+        <v>4</v>
+      </c>
+      <c r="F5" s="72">
+        <v>44124</v>
+      </c>
+      <c r="G5" s="72">
+        <v>44124</v>
+      </c>
+      <c r="H5" s="35">
+        <v>1</v>
+      </c>
+      <c r="I5" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="J5" s="75">
+        <v>105</v>
+      </c>
+      <c r="K5" s="38">
+        <v>100</v>
+      </c>
+      <c r="L5" s="40">
+        <v>40</v>
+      </c>
+      <c r="M5" s="38">
+        <v>21</v>
+      </c>
+      <c r="N5" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="35">
+        <v>4</v>
+      </c>
+      <c r="B6" s="35">
+        <v>1</v>
+      </c>
+      <c r="C6" s="35">
+        <v>342</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="35">
+        <v>6</v>
+      </c>
+      <c r="F6" s="72">
+        <v>44116</v>
+      </c>
+      <c r="G6" s="72">
+        <v>44125</v>
+      </c>
+      <c r="H6" s="35">
+        <v>2</v>
+      </c>
+      <c r="I6" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="J6" s="75">
+        <v>105</v>
+      </c>
+      <c r="K6" s="38">
+        <v>20</v>
+      </c>
+      <c r="L6" s="40">
+        <v>30</v>
+      </c>
+      <c r="M6" s="38">
+        <v>21</v>
+      </c>
+      <c r="N6" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="35">
+        <v>5</v>
+      </c>
+      <c r="B7" s="35">
+        <v>1</v>
+      </c>
+      <c r="C7" s="35">
+        <v>342</v>
+      </c>
+      <c r="D7" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" s="35">
+        <v>6</v>
+      </c>
+      <c r="F7" s="72">
+        <v>44116</v>
+      </c>
+      <c r="G7" s="72">
+        <v>44125</v>
+      </c>
+      <c r="H7" s="35">
+        <v>1</v>
+      </c>
+      <c r="I7" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="J7" s="75">
+        <v>105</v>
+      </c>
+      <c r="K7" s="38">
+        <v>50</v>
+      </c>
+      <c r="L7" s="40">
+        <v>60</v>
+      </c>
+      <c r="M7" s="38">
+        <v>21</v>
+      </c>
+      <c r="N7" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="35">
+        <v>6</v>
+      </c>
+      <c r="B8" s="35">
+        <v>1</v>
+      </c>
+      <c r="C8" s="35">
+        <v>342</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="35">
+        <v>6</v>
+      </c>
+      <c r="F8" s="72">
+        <v>44116</v>
+      </c>
+      <c r="G8" s="72">
+        <v>44125</v>
+      </c>
+      <c r="H8" s="35">
+        <v>3</v>
+      </c>
+      <c r="I8" s="36" t="s">
+        <v>254</v>
+      </c>
+      <c r="J8" s="75">
+        <v>105</v>
+      </c>
+      <c r="K8" s="38">
+        <v>20</v>
+      </c>
+      <c r="L8" s="40">
+        <v>80</v>
+      </c>
+      <c r="M8" s="38">
+        <v>21</v>
+      </c>
+      <c r="N8" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="35">
+        <v>7</v>
+      </c>
+      <c r="B9" s="35">
+        <v>1</v>
+      </c>
+      <c r="C9" s="35">
+        <v>342</v>
+      </c>
+      <c r="D9" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" s="35">
+        <v>6</v>
+      </c>
+      <c r="F9" s="72">
+        <v>44116</v>
+      </c>
+      <c r="G9" s="72">
+        <v>44125</v>
+      </c>
+      <c r="H9" s="35">
+        <v>5</v>
+      </c>
+      <c r="I9" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="J9" s="75">
+        <v>105</v>
+      </c>
+      <c r="K9" s="38">
+        <v>50</v>
+      </c>
+      <c r="L9" s="40">
+        <v>170</v>
+      </c>
+      <c r="M9" s="38">
+        <v>10.5</v>
+      </c>
+      <c r="N9" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="35">
+        <v>8</v>
+      </c>
+      <c r="B10" s="35">
+        <v>1</v>
+      </c>
+      <c r="C10" s="35">
+        <v>43</v>
+      </c>
+      <c r="D10" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="D2" s="33" t="s">
-        <v>262</v>
-      </c>
-      <c r="E2" s="33" t="s">
-        <v>260</v>
-      </c>
-      <c r="F2" s="33" t="s">
-        <v>268</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>257</v>
-      </c>
-      <c r="H2" s="34" t="s">
-        <v>251</v>
-      </c>
-      <c r="I2" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="J2" s="33" t="s">
-        <v>252</v>
-      </c>
-      <c r="K2" s="35" t="s">
-        <v>250</v>
-      </c>
-      <c r="L2" s="33" t="s">
-        <v>254</v>
-      </c>
-      <c r="M2" s="35" t="s">
-        <v>253</v>
-      </c>
-      <c r="N2" s="33" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="36">
-        <v>1</v>
-      </c>
-      <c r="B3" s="36">
+      <c r="E10" s="35">
+        <v>12</v>
+      </c>
+      <c r="F10" s="72">
+        <v>44075</v>
+      </c>
+      <c r="G10" s="72">
+        <v>44114</v>
+      </c>
+      <c r="H10" s="35">
+        <v>9999</v>
+      </c>
+      <c r="I10" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="J10" s="76">
+        <v>508</v>
+      </c>
+      <c r="K10" s="38">
+        <v>1</v>
+      </c>
+      <c r="L10" s="40">
+        <v>1700</v>
+      </c>
+      <c r="M10" s="38">
+        <v>0</v>
+      </c>
+      <c r="N10" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="35">
+        <v>9</v>
+      </c>
+      <c r="B11" s="35">
+        <v>1</v>
+      </c>
+      <c r="C11" s="35">
+        <v>44</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>265</v>
+      </c>
+      <c r="E11" s="35">
+        <v>12</v>
+      </c>
+      <c r="F11" s="72">
+        <v>44105</v>
+      </c>
+      <c r="G11" s="72">
+        <v>44114</v>
+      </c>
+      <c r="H11" s="35">
+        <v>9999</v>
+      </c>
+      <c r="I11" s="36" t="s">
+        <v>266</v>
+      </c>
+      <c r="J11" s="76">
+        <v>508</v>
+      </c>
+      <c r="K11" s="38">
+        <v>1</v>
+      </c>
+      <c r="L11" s="40">
+        <v>1700</v>
+      </c>
+      <c r="M11" s="38">
+        <v>0</v>
+      </c>
+      <c r="N11" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="35">
+        <v>10</v>
+      </c>
+      <c r="B12" s="35">
+        <v>1</v>
+      </c>
+      <c r="C12" s="35">
+        <v>201</v>
+      </c>
+      <c r="D12" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="36">
-        <v>14</v>
-      </c>
-      <c r="D3" s="36" t="s">
+      <c r="E12" s="35">
+        <v>1</v>
+      </c>
+      <c r="F12" s="72">
+        <v>44105</v>
+      </c>
+      <c r="G12" s="72">
+        <v>44114</v>
+      </c>
+      <c r="H12" s="35">
+        <v>9999</v>
+      </c>
+      <c r="I12" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="J12" s="76">
+        <v>503</v>
+      </c>
+      <c r="K12" s="38">
+        <v>1</v>
+      </c>
+      <c r="L12" s="40">
+        <v>5000</v>
+      </c>
+      <c r="M12" s="38">
+        <v>21</v>
+      </c>
+      <c r="N12" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="86">
+        <v>11</v>
+      </c>
+      <c r="B13" s="35">
+        <v>1</v>
+      </c>
+      <c r="C13" s="35">
+        <v>150</v>
+      </c>
+      <c r="D13" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="36">
-        <v>4</v>
-      </c>
-      <c r="F3" s="83">
-        <v>44124</v>
-      </c>
-      <c r="G3" s="83">
-        <v>44124</v>
-      </c>
-      <c r="H3" s="36">
-        <v>8</v>
-      </c>
-      <c r="I3" s="37" t="s">
-        <v>249</v>
-      </c>
-      <c r="J3" s="86">
-        <v>105</v>
-      </c>
-      <c r="K3" s="39">
-        <v>100</v>
-      </c>
-      <c r="L3" s="41">
-        <v>120</v>
-      </c>
-      <c r="M3" s="39">
+      <c r="E13" s="35">
+        <v>3</v>
+      </c>
+      <c r="F13" s="72">
+        <v>44105</v>
+      </c>
+      <c r="G13" s="72">
+        <v>44114</v>
+      </c>
+      <c r="H13" s="35">
+        <v>9999</v>
+      </c>
+      <c r="I13" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="J13" s="76">
+        <v>513</v>
+      </c>
+      <c r="K13" s="38">
+        <v>1</v>
+      </c>
+      <c r="L13" s="40">
+        <v>970</v>
+      </c>
+      <c r="M13" s="38">
         <v>21</v>
       </c>
-      <c r="N3" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="36">
-        <v>2</v>
-      </c>
-      <c r="B4" s="36">
-        <v>2</v>
-      </c>
-      <c r="C4" s="36">
-        <v>14</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="36">
-        <v>4</v>
-      </c>
-      <c r="F4" s="83">
-        <v>44124</v>
-      </c>
-      <c r="G4" s="83">
-        <v>44124</v>
-      </c>
-      <c r="H4" s="36">
-        <v>5</v>
-      </c>
-      <c r="I4" s="37" t="s">
-        <v>248</v>
-      </c>
-      <c r="J4" s="86">
-        <v>105</v>
-      </c>
-      <c r="K4" s="39">
-        <v>100</v>
-      </c>
-      <c r="L4" s="41">
-        <v>150</v>
-      </c>
-      <c r="M4" s="39">
-        <v>10.5</v>
-      </c>
-      <c r="N4" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="36">
-        <v>3</v>
-      </c>
-      <c r="B5" s="36">
-        <v>2</v>
-      </c>
-      <c r="C5" s="36">
-        <v>14</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="36">
-        <v>4</v>
-      </c>
-      <c r="F5" s="83">
-        <v>44124</v>
-      </c>
-      <c r="G5" s="83">
-        <v>44124</v>
-      </c>
-      <c r="H5" s="36">
-        <v>1</v>
-      </c>
-      <c r="I5" s="37" t="s">
-        <v>247</v>
-      </c>
-      <c r="J5" s="86">
-        <v>105</v>
-      </c>
-      <c r="K5" s="39">
-        <v>100</v>
-      </c>
-      <c r="L5" s="41">
-        <v>40</v>
-      </c>
-      <c r="M5" s="39">
-        <v>21</v>
-      </c>
-      <c r="N5" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="36">
-        <v>4</v>
-      </c>
-      <c r="B6" s="36">
-        <v>1</v>
-      </c>
-      <c r="C6" s="36">
-        <v>342</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="36">
-        <v>6</v>
-      </c>
-      <c r="F6" s="83">
-        <v>44116</v>
-      </c>
-      <c r="G6" s="83">
-        <v>44125</v>
-      </c>
-      <c r="H6" s="36">
-        <v>2</v>
-      </c>
-      <c r="I6" s="37" t="s">
-        <v>256</v>
-      </c>
-      <c r="J6" s="86">
-        <v>105</v>
-      </c>
-      <c r="K6" s="39">
-        <v>20</v>
-      </c>
-      <c r="L6" s="41">
-        <v>30</v>
-      </c>
-      <c r="M6" s="39">
-        <v>21</v>
-      </c>
-      <c r="N6" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="36">
-        <v>5</v>
-      </c>
-      <c r="B7" s="36">
-        <v>1</v>
-      </c>
-      <c r="C7" s="36">
-        <v>342</v>
-      </c>
-      <c r="D7" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="36">
-        <v>6</v>
-      </c>
-      <c r="F7" s="83">
-        <v>44116</v>
-      </c>
-      <c r="G7" s="83">
-        <v>44125</v>
-      </c>
-      <c r="H7" s="36">
-        <v>1</v>
-      </c>
-      <c r="I7" s="37" t="s">
-        <v>247</v>
-      </c>
-      <c r="J7" s="86">
-        <v>105</v>
-      </c>
-      <c r="K7" s="39">
-        <v>50</v>
-      </c>
-      <c r="L7" s="41">
-        <v>60</v>
-      </c>
-      <c r="M7" s="39">
-        <v>21</v>
-      </c>
-      <c r="N7" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="36">
-        <v>6</v>
-      </c>
-      <c r="B8" s="36">
-        <v>1</v>
-      </c>
-      <c r="C8" s="36">
-        <v>342</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="36">
-        <v>6</v>
-      </c>
-      <c r="F8" s="83">
-        <v>44116</v>
-      </c>
-      <c r="G8" s="83">
-        <v>44125</v>
-      </c>
-      <c r="H8" s="36">
-        <v>3</v>
-      </c>
-      <c r="I8" s="37" t="s">
-        <v>255</v>
-      </c>
-      <c r="J8" s="86">
-        <v>105</v>
-      </c>
-      <c r="K8" s="39">
-        <v>20</v>
-      </c>
-      <c r="L8" s="41">
-        <v>80</v>
-      </c>
-      <c r="M8" s="39">
-        <v>21</v>
-      </c>
-      <c r="N8" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="36">
-        <v>7</v>
-      </c>
-      <c r="B9" s="36">
-        <v>1</v>
-      </c>
-      <c r="C9" s="36">
-        <v>342</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="36">
-        <v>6</v>
-      </c>
-      <c r="F9" s="83">
-        <v>44116</v>
-      </c>
-      <c r="G9" s="83">
-        <v>44125</v>
-      </c>
-      <c r="H9" s="36">
-        <v>5</v>
-      </c>
-      <c r="I9" s="37" t="s">
-        <v>248</v>
-      </c>
-      <c r="J9" s="86">
-        <v>105</v>
-      </c>
-      <c r="K9" s="39">
-        <v>50</v>
-      </c>
-      <c r="L9" s="41">
-        <v>170</v>
-      </c>
-      <c r="M9" s="39">
-        <v>10.5</v>
-      </c>
-      <c r="N9" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="36">
-        <v>8</v>
-      </c>
-      <c r="B10" s="36">
-        <v>1</v>
-      </c>
-      <c r="C10" s="36">
-        <v>43</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>266</v>
-      </c>
-      <c r="E10" s="36">
-        <v>12</v>
-      </c>
-      <c r="F10" s="83">
-        <v>44075</v>
-      </c>
-      <c r="G10" s="83">
-        <v>44114</v>
-      </c>
-      <c r="H10" s="36">
-        <v>9999</v>
-      </c>
-      <c r="I10" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="J10" s="87">
-        <v>508</v>
-      </c>
-      <c r="K10" s="39">
-        <v>1</v>
-      </c>
-      <c r="L10" s="41">
-        <v>1700</v>
-      </c>
-      <c r="M10" s="39">
-        <v>0</v>
-      </c>
-      <c r="N10" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="36">
-        <v>9</v>
-      </c>
-      <c r="B11" s="36">
-        <v>1</v>
-      </c>
-      <c r="C11" s="36">
-        <v>44</v>
-      </c>
-      <c r="D11" s="36" t="s">
-        <v>266</v>
-      </c>
-      <c r="E11" s="36">
-        <v>12</v>
-      </c>
-      <c r="F11" s="83">
-        <v>44105</v>
-      </c>
-      <c r="G11" s="83">
-        <v>44114</v>
-      </c>
-      <c r="H11" s="36">
-        <v>9999</v>
-      </c>
-      <c r="I11" s="37" t="s">
-        <v>267</v>
-      </c>
-      <c r="J11" s="87">
-        <v>508</v>
-      </c>
-      <c r="K11" s="39">
-        <v>1</v>
-      </c>
-      <c r="L11" s="41">
-        <v>1700</v>
-      </c>
-      <c r="M11" s="39">
-        <v>0</v>
-      </c>
-      <c r="N11" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="36">
-        <v>10</v>
-      </c>
-      <c r="B12" s="36">
-        <v>1</v>
-      </c>
-      <c r="C12" s="36">
-        <v>201</v>
-      </c>
-      <c r="D12" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="36">
-        <v>1</v>
-      </c>
-      <c r="F12" s="83">
-        <v>44105</v>
-      </c>
-      <c r="G12" s="83">
-        <v>44114</v>
-      </c>
-      <c r="H12" s="36">
-        <v>9999</v>
-      </c>
-      <c r="I12" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="J12" s="87">
-        <v>503</v>
-      </c>
-      <c r="K12" s="39">
-        <v>1</v>
-      </c>
-      <c r="L12" s="41">
-        <v>5000</v>
-      </c>
-      <c r="M12" s="39">
-        <v>21</v>
-      </c>
-      <c r="N12" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="97">
-        <v>11</v>
-      </c>
-      <c r="B13" s="36">
-        <v>1</v>
-      </c>
-      <c r="C13" s="36">
-        <v>150</v>
-      </c>
-      <c r="D13" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="36">
-        <v>3</v>
-      </c>
-      <c r="F13" s="83">
-        <v>44105</v>
-      </c>
-      <c r="G13" s="83">
-        <v>44114</v>
-      </c>
-      <c r="H13" s="36">
-        <v>9999</v>
-      </c>
-      <c r="I13" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="J13" s="87">
-        <v>513</v>
-      </c>
-      <c r="K13" s="39">
-        <v>1</v>
-      </c>
-      <c r="L13" s="41">
-        <v>970</v>
-      </c>
-      <c r="M13" s="39">
-        <v>21</v>
-      </c>
-      <c r="N13" s="37">
+      <c r="N13" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="88" t="s">
-        <v>278</v>
+      <c r="B14" s="77" t="s">
+        <v>277</v>
       </c>
       <c r="D14"/>
       <c r="E14"/>
@@ -3607,161 +3639,161 @@
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B15" s="3"/>
       <c r="C15" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="C16" s="93"/>
-      <c r="D16" s="93" t="s">
-        <v>282</v>
-      </c>
-      <c r="E16" s="94" t="s">
-        <v>285</v>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82" t="s">
+        <v>281</v>
+      </c>
+      <c r="E16" s="83" t="s">
+        <v>284</v>
       </c>
       <c r="F16" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="G16" s="79" t="s">
         <v>269</v>
       </c>
-      <c r="G16" s="90" t="s">
-        <v>270</v>
-      </c>
       <c r="H16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E17" s="8"/>
       <c r="F17"/>
-      <c r="G17" s="90" t="s">
+      <c r="G17" s="79" t="s">
+        <v>270</v>
+      </c>
+      <c r="H17" s="85" t="s">
         <v>271</v>
       </c>
-      <c r="H17" s="96" t="s">
+      <c r="I17" s="23" t="s">
         <v>272</v>
       </c>
-      <c r="I17" s="24" t="s">
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C18" s="82"/>
+      <c r="D18" s="82" t="s">
+        <v>282</v>
+      </c>
+      <c r="E18" s="84" t="s">
+        <v>285</v>
+      </c>
+      <c r="F18" s="78" t="s">
+        <v>268</v>
+      </c>
+      <c r="G18" s="80" t="s">
+        <v>269</v>
+      </c>
+      <c r="H18" t="s">
         <v>273</v>
-      </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C18" s="93"/>
-      <c r="D18" s="93" t="s">
-        <v>283</v>
-      </c>
-      <c r="E18" s="95" t="s">
-        <v>286</v>
-      </c>
-      <c r="F18" s="89" t="s">
-        <v>269</v>
-      </c>
-      <c r="G18" s="91" t="s">
-        <v>270</v>
-      </c>
-      <c r="H18" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.25">
       <c r="F19"/>
-      <c r="G19" s="91" t="s">
-        <v>271</v>
-      </c>
-      <c r="H19" s="96" t="s">
-        <v>275</v>
-      </c>
-      <c r="I19" s="24" t="s">
+      <c r="G19" s="80" t="s">
+        <v>270</v>
+      </c>
+      <c r="H19" s="85" t="s">
         <v>274</v>
       </c>
+      <c r="I19" s="23" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C20" s="93"/>
-      <c r="D20" s="93" t="s">
-        <v>284</v>
+      <c r="C20" s="82"/>
+      <c r="D20" s="82" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="E21" s="92" t="s">
-        <v>262</v>
+      <c r="E21" s="81" t="s">
+        <v>261</v>
       </c>
       <c r="F21"/>
       <c r="G21"/>
     </row>
     <row r="22" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="E22" s="92" t="s">
-        <v>264</v>
+      <c r="E22" s="81" t="s">
+        <v>263</v>
       </c>
       <c r="F22"/>
       <c r="G22"/>
     </row>
     <row r="23" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="E23" s="92" t="s">
+      <c r="E23" s="81" t="s">
         <v>170</v>
       </c>
       <c r="F23"/>
       <c r="G23"/>
     </row>
     <row r="24" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="L24" s="88" t="s">
-        <v>278</v>
+      <c r="L24" s="77" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.25">
       <c r="L25" s="3"/>
       <c r="M25" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="26" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="L26" s="88" t="s">
-        <v>278</v>
-      </c>
-      <c r="N26" s="24" t="s">
-        <v>287</v>
+      <c r="L26" s="77" t="s">
+        <v>277</v>
+      </c>
+      <c r="N26" s="23" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="27" spans="3:14" x14ac:dyDescent="0.25">
       <c r="L27" s="3"/>
       <c r="M27" s="3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="28" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="E28" s="92" t="s">
+      <c r="E28" s="81" t="s">
         <v>151</v>
       </c>
       <c r="F28"/>
       <c r="G28"/>
-      <c r="N28" s="24" t="s">
-        <v>281</v>
+      <c r="N28" s="23" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="E29" s="92" t="s">
-        <v>276</v>
+      <c r="E29" s="81" t="s">
+        <v>275</v>
       </c>
       <c r="F29"/>
       <c r="G29"/>
-      <c r="L29" s="88" t="s">
-        <v>278</v>
+      <c r="L29" s="77" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="30" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="E30" s="92" t="s">
-        <v>277</v>
+      <c r="E30" s="81" t="s">
+        <v>276</v>
       </c>
       <c r="F30"/>
       <c r="G30"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="E31" s="92" t="s">
-        <v>290</v>
+      <c r="E31" s="81" t="s">
+        <v>289</v>
       </c>
       <c r="F31"/>
       <c r="G31"/>
-      <c r="N31" s="24" t="s">
-        <v>289</v>
+      <c r="N31" s="23" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="32" spans="3:14" x14ac:dyDescent="0.25">
@@ -3799,23 +3831,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
-        <v>206</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>221</v>
-      </c>
-      <c r="C1" s="81" t="s">
+      <c r="A1" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>220</v>
       </c>
-      <c r="D1" s="81"/>
-      <c r="E1" s="82" t="s">
+      <c r="C1" s="95" t="s">
         <v>219</v>
       </c>
-      <c r="F1" s="82"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="96" t="s">
+        <v>218</v>
+      </c>
+      <c r="F1" s="96"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="29" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3825,60 +3857,60 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="29" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="27" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D7" s="29" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D8" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F9" s="29" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C10" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D7" s="30" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D8" s="24" t="s">
-        <v>204</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="F9" s="30" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C10" s="29" t="s">
-        <v>197</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="F10" s="24">
+      <c r="F10" s="23">
         <v>9</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G11" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="H11" s="26">
+      <c r="H11" s="25">
         <v>700</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G12" s="25" t="s">
+      <c r="G12" s="24" t="s">
         <v>151</v>
       </c>
       <c r="H12">
@@ -3887,100 +3919,100 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G13" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="H13" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="H13" s="29" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="29" t="s">
         <v>179</v>
       </c>
-      <c r="I14" s="27" t="s">
-        <v>207</v>
-      </c>
-      <c r="J14" s="26">
+      <c r="I14" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="J14" s="25">
         <v>1400</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="25" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" s="26" t="s">
-        <v>210</v>
-      </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="29" t="s">
         <v>175</v>
       </c>
-      <c r="I16" s="30" t="s">
+      <c r="I16" s="29" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D17" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="K17" s="26">
+        <v>213</v>
+      </c>
+      <c r="K17" s="25">
         <f>+J14</f>
         <v>1400</v>
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="29" t="s">
         <v>175</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="K18" s="26">
+        <v>215</v>
+      </c>
+      <c r="K18" s="25">
         <f>+K17*0.95</f>
         <v>1330</v>
       </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D19" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="K19" s="26">
+        <v>194</v>
+      </c>
+      <c r="K19" s="25">
         <f>+K18*21/100</f>
         <v>279.3</v>
       </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D20" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="K20" s="26">
+        <v>214</v>
+      </c>
+      <c r="K20" s="25">
         <f>+K18+K19</f>
         <v>1609.3</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="D21" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="26" t="s">
-        <v>211</v>
+      <c r="B22" s="25" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C23" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -4020,353 +4052,353 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="87" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>256</v>
+      </c>
+      <c r="D2" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>251</v>
+      </c>
+      <c r="G2" s="34" t="s">
+        <v>249</v>
+      </c>
+      <c r="H2" s="32" t="s">
+        <v>253</v>
+      </c>
+      <c r="I2" s="34" t="s">
+        <v>252</v>
+      </c>
+      <c r="J2" s="32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="35">
+        <v>1</v>
+      </c>
+      <c r="B3" s="35">
+        <v>44</v>
+      </c>
+      <c r="C3" s="72">
+        <v>44124</v>
+      </c>
+      <c r="D3" s="35">
+        <v>8</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="F3" s="35">
+        <v>501</v>
+      </c>
+      <c r="G3" s="38">
+        <v>2</v>
+      </c>
+      <c r="H3" s="40">
+        <v>120</v>
+      </c>
+      <c r="I3" s="38">
+        <v>21</v>
+      </c>
+      <c r="J3" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="35">
+        <v>1</v>
+      </c>
+      <c r="B4" s="35">
+        <v>44</v>
+      </c>
+      <c r="C4" s="72">
+        <v>44124</v>
+      </c>
+      <c r="D4" s="35">
+        <v>5</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="F4" s="35">
+        <v>501</v>
+      </c>
+      <c r="G4" s="38">
+        <v>1</v>
+      </c>
+      <c r="H4" s="40">
+        <v>150</v>
+      </c>
+      <c r="I4" s="38">
+        <v>10.5</v>
+      </c>
+      <c r="J4" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="35">
+        <v>1</v>
+      </c>
+      <c r="B5" s="35">
+        <v>44</v>
+      </c>
+      <c r="C5" s="72">
+        <v>44124</v>
+      </c>
+      <c r="D5" s="35">
+        <v>1</v>
+      </c>
+      <c r="E5" s="36" t="s">
         <v>246</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>260</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>257</v>
-      </c>
-      <c r="D2" s="34" t="s">
-        <v>251</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" s="33" t="s">
-        <v>252</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>250</v>
-      </c>
-      <c r="H2" s="33" t="s">
+      <c r="F5" s="35">
+        <v>501</v>
+      </c>
+      <c r="G5" s="38">
+        <v>1</v>
+      </c>
+      <c r="H5" s="40">
+        <v>40</v>
+      </c>
+      <c r="I5" s="38">
+        <v>21</v>
+      </c>
+      <c r="J5" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="35">
+        <v>2</v>
+      </c>
+      <c r="B6" s="35">
+        <v>9</v>
+      </c>
+      <c r="C6" s="72">
+        <v>44125</v>
+      </c>
+      <c r="D6" s="35">
+        <v>2</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="F6" s="35">
+        <v>501</v>
+      </c>
+      <c r="G6" s="38">
+        <v>2</v>
+      </c>
+      <c r="H6" s="40">
+        <v>30</v>
+      </c>
+      <c r="I6" s="38">
+        <v>21</v>
+      </c>
+      <c r="J6" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="35">
+        <v>2</v>
+      </c>
+      <c r="B7" s="35">
+        <v>9</v>
+      </c>
+      <c r="C7" s="72">
+        <v>44125</v>
+      </c>
+      <c r="D7" s="35">
+        <v>1</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="F7" s="35">
+        <v>501</v>
+      </c>
+      <c r="G7" s="38">
+        <v>2</v>
+      </c>
+      <c r="H7" s="40">
+        <v>40</v>
+      </c>
+      <c r="I7" s="38">
+        <v>21</v>
+      </c>
+      <c r="J7" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="35">
+        <v>3</v>
+      </c>
+      <c r="B8" s="35">
+        <v>5</v>
+      </c>
+      <c r="C8" s="72">
+        <v>44125</v>
+      </c>
+      <c r="D8" s="35">
+        <v>3</v>
+      </c>
+      <c r="E8" s="36" t="s">
         <v>254</v>
       </c>
-      <c r="I2" s="35" t="s">
-        <v>253</v>
-      </c>
-      <c r="J2" s="33" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="36">
-        <v>1</v>
-      </c>
-      <c r="B3" s="36">
-        <v>44</v>
-      </c>
-      <c r="C3" s="83">
-        <v>44124</v>
-      </c>
-      <c r="D3" s="36">
+      <c r="F8" s="35">
+        <v>501</v>
+      </c>
+      <c r="G8" s="38">
+        <v>3</v>
+      </c>
+      <c r="H8" s="40">
+        <v>80</v>
+      </c>
+      <c r="I8" s="38">
+        <v>21</v>
+      </c>
+      <c r="J8" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="35">
+        <v>3</v>
+      </c>
+      <c r="B9" s="35">
+        <v>5</v>
+      </c>
+      <c r="C9" s="72">
+        <v>44125</v>
+      </c>
+      <c r="D9" s="35">
+        <v>5</v>
+      </c>
+      <c r="E9" s="36" t="s">
+        <v>247</v>
+      </c>
+      <c r="F9" s="35">
+        <v>501</v>
+      </c>
+      <c r="G9" s="38">
+        <v>3</v>
+      </c>
+      <c r="H9" s="40">
+        <v>150</v>
+      </c>
+      <c r="I9" s="38">
+        <v>10.5</v>
+      </c>
+      <c r="J9" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="35">
+        <v>3</v>
+      </c>
+      <c r="B10" s="35">
+        <v>5</v>
+      </c>
+      <c r="C10" s="72">
+        <v>44125</v>
+      </c>
+      <c r="D10" s="35">
+        <v>2</v>
+      </c>
+      <c r="E10" s="36" t="s">
+        <v>255</v>
+      </c>
+      <c r="F10" s="35">
+        <v>501</v>
+      </c>
+      <c r="G10" s="38">
+        <v>5</v>
+      </c>
+      <c r="H10" s="40">
+        <v>30</v>
+      </c>
+      <c r="I10" s="38">
+        <v>21</v>
+      </c>
+      <c r="J10" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="35">
+        <v>3</v>
+      </c>
+      <c r="B11" s="35">
+        <v>5</v>
+      </c>
+      <c r="C11" s="72">
+        <v>44125</v>
+      </c>
+      <c r="D11" s="35">
         <v>8</v>
       </c>
-      <c r="E3" s="37" t="s">
-        <v>249</v>
-      </c>
-      <c r="F3" s="36">
+      <c r="E11" s="36" t="s">
+        <v>248</v>
+      </c>
+      <c r="F11" s="35">
         <v>501</v>
       </c>
-      <c r="G3" s="39">
-        <v>2</v>
-      </c>
-      <c r="H3" s="41">
+      <c r="G11" s="38">
+        <v>1</v>
+      </c>
+      <c r="H11" s="40">
         <v>120</v>
       </c>
-      <c r="I3" s="39">
+      <c r="I11" s="38">
         <v>21</v>
       </c>
-      <c r="J3" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="36">
-        <v>1</v>
-      </c>
-      <c r="B4" s="36">
-        <v>44</v>
-      </c>
-      <c r="C4" s="83">
-        <v>44124</v>
-      </c>
-      <c r="D4" s="36">
-        <v>5</v>
-      </c>
-      <c r="E4" s="37" t="s">
-        <v>248</v>
-      </c>
-      <c r="F4" s="36">
-        <v>501</v>
-      </c>
-      <c r="G4" s="39">
-        <v>1</v>
-      </c>
-      <c r="H4" s="41">
-        <v>150</v>
-      </c>
-      <c r="I4" s="39">
-        <v>10.5</v>
-      </c>
-      <c r="J4" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="36">
-        <v>1</v>
-      </c>
-      <c r="B5" s="36">
-        <v>44</v>
-      </c>
-      <c r="C5" s="83">
-        <v>44124</v>
-      </c>
-      <c r="D5" s="36">
-        <v>1</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>247</v>
-      </c>
-      <c r="F5" s="36">
-        <v>501</v>
-      </c>
-      <c r="G5" s="39">
-        <v>1</v>
-      </c>
-      <c r="H5" s="41">
-        <v>40</v>
-      </c>
-      <c r="I5" s="39">
-        <v>21</v>
-      </c>
-      <c r="J5" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="36">
-        <v>2</v>
-      </c>
-      <c r="B6" s="36">
-        <v>9</v>
-      </c>
-      <c r="C6" s="83">
-        <v>44125</v>
-      </c>
-      <c r="D6" s="36">
-        <v>2</v>
-      </c>
-      <c r="E6" s="37" t="s">
-        <v>256</v>
-      </c>
-      <c r="F6" s="36">
-        <v>501</v>
-      </c>
-      <c r="G6" s="39">
-        <v>2</v>
-      </c>
-      <c r="H6" s="41">
-        <v>30</v>
-      </c>
-      <c r="I6" s="39">
-        <v>21</v>
-      </c>
-      <c r="J6" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="36">
-        <v>2</v>
-      </c>
-      <c r="B7" s="36">
-        <v>9</v>
-      </c>
-      <c r="C7" s="83">
-        <v>44125</v>
-      </c>
-      <c r="D7" s="36">
-        <v>1</v>
-      </c>
-      <c r="E7" s="37" t="s">
-        <v>247</v>
-      </c>
-      <c r="F7" s="36">
-        <v>501</v>
-      </c>
-      <c r="G7" s="39">
-        <v>2</v>
-      </c>
-      <c r="H7" s="41">
-        <v>40</v>
-      </c>
-      <c r="I7" s="39">
-        <v>21</v>
-      </c>
-      <c r="J7" s="37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="36">
-        <v>3</v>
-      </c>
-      <c r="B8" s="36">
-        <v>5</v>
-      </c>
-      <c r="C8" s="83">
-        <v>44125</v>
-      </c>
-      <c r="D8" s="36">
-        <v>3</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>255</v>
-      </c>
-      <c r="F8" s="36">
-        <v>501</v>
-      </c>
-      <c r="G8" s="39">
-        <v>3</v>
-      </c>
-      <c r="H8" s="41">
-        <v>80</v>
-      </c>
-      <c r="I8" s="39">
-        <v>21</v>
-      </c>
-      <c r="J8" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="36">
-        <v>3</v>
-      </c>
-      <c r="B9" s="36">
-        <v>5</v>
-      </c>
-      <c r="C9" s="83">
-        <v>44125</v>
-      </c>
-      <c r="D9" s="36">
-        <v>5</v>
-      </c>
-      <c r="E9" s="37" t="s">
-        <v>248</v>
-      </c>
-      <c r="F9" s="36">
-        <v>501</v>
-      </c>
-      <c r="G9" s="39">
-        <v>3</v>
-      </c>
-      <c r="H9" s="41">
-        <v>150</v>
-      </c>
-      <c r="I9" s="39">
-        <v>10.5</v>
-      </c>
-      <c r="J9" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="36">
-        <v>3</v>
-      </c>
-      <c r="B10" s="36">
-        <v>5</v>
-      </c>
-      <c r="C10" s="83">
-        <v>44125</v>
-      </c>
-      <c r="D10" s="36">
-        <v>2</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>256</v>
-      </c>
-      <c r="F10" s="36">
-        <v>501</v>
-      </c>
-      <c r="G10" s="39">
-        <v>5</v>
-      </c>
-      <c r="H10" s="41">
-        <v>30</v>
-      </c>
-      <c r="I10" s="39">
-        <v>21</v>
-      </c>
-      <c r="J10" s="37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="36">
-        <v>3</v>
-      </c>
-      <c r="B11" s="36">
-        <v>5</v>
-      </c>
-      <c r="C11" s="83">
-        <v>44125</v>
-      </c>
-      <c r="D11" s="36">
-        <v>8</v>
-      </c>
-      <c r="E11" s="37" t="s">
-        <v>249</v>
-      </c>
-      <c r="F11" s="36">
-        <v>501</v>
-      </c>
-      <c r="G11" s="39">
-        <v>1</v>
-      </c>
-      <c r="H11" s="41">
-        <v>120</v>
-      </c>
-      <c r="I11" s="39">
-        <v>21</v>
-      </c>
-      <c r="J11" s="37">
+      <c r="J11" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D14" s="74" t="s">
+      <c r="D14" s="88" t="s">
         <v>142</v>
       </c>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="74"/>
-      <c r="I14" s="74"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="88"/>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D15" s="14"/>
@@ -4377,7 +4409,7 @@
         <v>147</v>
       </c>
       <c r="I15" s="14" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -4457,22 +4489,22 @@
       <c r="I22" s="14"/>
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D23" s="85" t="s">
+      <c r="D23" s="74" t="s">
         <v>149</v>
       </c>
-      <c r="E23" s="85" t="s">
+      <c r="E23" s="74" t="s">
         <v>150</v>
       </c>
-      <c r="F23" s="85" t="s">
+      <c r="F23" s="74" t="s">
         <v>151</v>
       </c>
-      <c r="G23" s="85" t="s">
+      <c r="G23" s="74" t="s">
         <v>152</v>
       </c>
-      <c r="H23" s="85" t="s">
+      <c r="H23" s="74" t="s">
         <v>157</v>
       </c>
-      <c r="I23" s="85" t="s">
+      <c r="I23" s="74" t="s">
         <v>156</v>
       </c>
     </row>
@@ -4481,19 +4513,19 @@
         <v>3</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F24" s="14">
         <v>3</v>
       </c>
-      <c r="G24" s="84">
+      <c r="G24" s="73">
         <v>80</v>
       </c>
-      <c r="H24" s="84">
+      <c r="H24" s="73">
         <f>+(G24*F24)*0.21</f>
         <v>50.4</v>
       </c>
-      <c r="I24" s="84">
+      <c r="I24" s="73">
         <f>+G24+H24</f>
         <v>130.4</v>
       </c>
@@ -4503,19 +4535,19 @@
         <v>5</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="F25" s="14">
         <v>3</v>
       </c>
-      <c r="G25" s="84">
+      <c r="G25" s="73">
         <v>150</v>
       </c>
-      <c r="H25" s="84">
+      <c r="H25" s="73">
         <f>+(G25*F25)*0.105</f>
         <v>47.25</v>
       </c>
-      <c r="I25" s="84">
+      <c r="I25" s="73">
         <f t="shared" ref="I25:I27" si="0">+G25+H25</f>
         <v>197.25</v>
       </c>
@@ -4525,19 +4557,19 @@
         <v>2</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F26" s="14">
         <v>5</v>
       </c>
-      <c r="G26" s="84">
+      <c r="G26" s="73">
         <v>30</v>
       </c>
-      <c r="H26" s="84">
-        <f t="shared" ref="H25:H27" si="1">+(G26*F26)*0.21</f>
+      <c r="H26" s="73">
+        <f t="shared" ref="H26:H27" si="1">+(G26*F26)*0.21</f>
         <v>31.5</v>
       </c>
-      <c r="I26" s="84">
+      <c r="I26" s="73">
         <f t="shared" si="0"/>
         <v>61.5</v>
       </c>
@@ -4547,19 +4579,19 @@
         <v>8</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F27" s="14">
         <v>1</v>
       </c>
-      <c r="G27" s="84">
+      <c r="G27" s="73">
         <v>120</v>
       </c>
-      <c r="H27" s="84">
+      <c r="H27" s="73">
         <f t="shared" si="1"/>
         <v>25.2</v>
       </c>
-      <c r="I27" s="84">
+      <c r="I27" s="73">
         <f t="shared" si="0"/>
         <v>145.19999999999999</v>
       </c>
@@ -4663,189 +4695,189 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="32" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="36">
-        <v>1</v>
-      </c>
-      <c r="B3" s="37" t="s">
+      <c r="A3" s="35">
+        <v>1</v>
+      </c>
+      <c r="B3" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="H3" s="39" t="s">
+      <c r="H3" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="37">
+      <c r="I3" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="36">
+      <c r="A4" s="35">
         <v>2</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="F4" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="H4" s="39" t="s">
+      <c r="H4" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="37">
+      <c r="I4" s="36">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="36">
+      <c r="A5" s="35">
         <v>3</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="F5" s="37" t="s">
+      <c r="F5" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="H5" s="39" t="s">
+      <c r="H5" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="37">
+      <c r="I5" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="36">
+      <c r="A6" s="35">
         <v>4</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="F6" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="H6" s="39" t="s">
+      <c r="H6" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="37">
+      <c r="I6" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="36">
+      <c r="A7" s="35">
         <v>5</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="G7" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="H7" s="39" t="s">
+      <c r="H7" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="37">
+      <c r="I7" s="36">
         <v>1</v>
       </c>
     </row>
@@ -4898,305 +4930,305 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="32" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="36">
-        <v>1</v>
-      </c>
-      <c r="B3" s="37" t="s">
+      <c r="A3" s="35">
+        <v>1</v>
+      </c>
+      <c r="B3" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="39" t="s">
+      <c r="H3" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="37">
+      <c r="I3" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="36">
+      <c r="A4" s="35">
         <v>2</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="F4" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="39" t="s">
+      <c r="H4" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="37">
+      <c r="I4" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="36">
+      <c r="A5" s="35">
         <v>3</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="37" t="s">
+      <c r="F5" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="39" t="s">
+      <c r="H5" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="37">
+      <c r="I5" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="36">
+      <c r="A6" s="35">
         <v>4</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="F6" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="39" t="s">
+      <c r="H6" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="37">
+      <c r="I6" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="36">
+      <c r="A7" s="35">
         <v>5</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="G7" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="39" t="s">
+      <c r="H7" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="I7" s="37">
+      <c r="I7" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="36">
+      <c r="A8" s="35">
         <v>6</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="37" t="s">
+      <c r="F8" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="39" t="s">
+      <c r="H8" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="37">
+      <c r="I8" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="36">
+      <c r="A9" s="35">
         <v>7</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="37" t="s">
+      <c r="F9" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="40" t="s">
+      <c r="G9" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="39" t="s">
+      <c r="H9" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="37">
+      <c r="I9" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="36">
+      <c r="A10" s="35">
         <v>8</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="37" t="s">
+      <c r="F10" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="39" t="s">
+      <c r="H10" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="37">
+      <c r="I10" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="36">
+      <c r="A11" s="35">
         <v>9</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="37" t="s">
+      <c r="F11" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="G11" s="40" t="s">
+      <c r="G11" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="39" t="s">
+      <c r="H11" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="I11" s="37">
+      <c r="I11" s="36">
         <v>0</v>
       </c>
     </row>
@@ -5222,10 +5254,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J11" sqref="A1:J11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5236,373 +5268,419 @@
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
     <col min="5" max="5" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="87" t="s">
         <v>91</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="32"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="31"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="33" t="s">
         <v>92</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="33" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="E2" s="33" t="s">
-        <v>199</v>
-      </c>
-      <c r="F2" s="33" t="s">
+      <c r="E2" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="F2" s="32" t="s">
         <v>192</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="32" t="s">
         <v>193</v>
       </c>
-      <c r="H2" s="35" t="s">
-        <v>230</v>
-      </c>
-      <c r="I2" s="33" t="s">
+      <c r="H2" s="34" t="s">
+        <v>229</v>
+      </c>
+      <c r="I2" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="32" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="36">
-        <v>1</v>
-      </c>
-      <c r="B3" s="36">
+      <c r="A3" s="35">
+        <v>1</v>
+      </c>
+      <c r="B3" s="35">
         <v>6</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="D3" s="36">
+      <c r="D3" s="35">
         <v>501</v>
       </c>
-      <c r="E3" s="37">
+      <c r="E3" s="36">
         <v>1000</v>
       </c>
-      <c r="F3" s="41">
+      <c r="F3" s="40">
         <f>+G3/(($A$14/100)+1)</f>
         <v>42.857142857142861</v>
       </c>
-      <c r="G3" s="58">
+      <c r="G3" s="57">
         <v>60</v>
       </c>
-      <c r="H3" s="39">
+      <c r="H3" s="38">
         <v>21</v>
       </c>
-      <c r="I3" s="37">
+      <c r="I3" s="36">
         <v>50</v>
       </c>
-      <c r="J3" s="37">
+      <c r="J3" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="36">
+      <c r="A4" s="35">
         <v>2</v>
       </c>
-      <c r="B4" s="36">
+      <c r="B4" s="35">
         <v>6</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="D4" s="36">
+      <c r="D4" s="35">
         <v>501</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E4" s="36">
         <v>1000</v>
       </c>
-      <c r="F4" s="41">
+      <c r="F4" s="40">
         <f t="shared" ref="F4:F11" si="0">+G4/(($A$14/100)+1)</f>
         <v>85.714285714285722</v>
       </c>
-      <c r="G4" s="58">
+      <c r="G4" s="57">
         <v>120</v>
       </c>
-      <c r="H4" s="39">
+      <c r="H4" s="38">
         <v>21</v>
       </c>
-      <c r="I4" s="37">
+      <c r="I4" s="36">
         <v>50</v>
       </c>
-      <c r="J4" s="37">
+      <c r="J4" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="36">
+      <c r="A5" s="35">
         <v>3</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="35">
         <v>6</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="D5" s="36">
+      <c r="D5" s="35">
         <v>501</v>
       </c>
-      <c r="E5" s="37">
-        <v>1000</v>
-      </c>
-      <c r="F5" s="41">
+      <c r="E5" s="36">
+        <f>1000+500</f>
+        <v>1500</v>
+      </c>
+      <c r="F5" s="40">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="G5" s="58">
+      <c r="G5" s="57">
         <v>210</v>
       </c>
-      <c r="H5" s="39">
+      <c r="H5" s="38">
         <v>21</v>
       </c>
-      <c r="I5" s="37">
+      <c r="I5" s="36">
         <v>50</v>
       </c>
-      <c r="J5" s="37">
+      <c r="J5" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="36">
+      <c r="A6" s="35">
         <v>4</v>
       </c>
-      <c r="B6" s="36">
+      <c r="B6" s="35">
         <v>8</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="35">
         <v>501</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6" s="36">
         <v>300</v>
       </c>
-      <c r="F6" s="41">
+      <c r="F6" s="40">
         <f t="shared" si="0"/>
         <v>357.14285714285717</v>
       </c>
-      <c r="G6" s="58">
+      <c r="G6" s="57">
         <v>500</v>
       </c>
-      <c r="H6" s="39">
+      <c r="H6" s="38">
         <v>10.5</v>
       </c>
-      <c r="I6" s="37">
+      <c r="I6" s="36">
         <v>10</v>
       </c>
-      <c r="J6" s="37">
+      <c r="J6" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="36">
+      <c r="A7" s="35">
         <v>5</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="35">
         <v>8</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="35">
         <v>501</v>
       </c>
-      <c r="E7" s="37">
+      <c r="E7" s="36">
         <v>300</v>
       </c>
-      <c r="F7" s="41">
+      <c r="F7" s="40">
         <f t="shared" si="0"/>
         <v>428.57142857142861</v>
       </c>
-      <c r="G7" s="58">
+      <c r="G7" s="57">
         <v>600</v>
       </c>
-      <c r="H7" s="39">
+      <c r="H7" s="38">
         <v>10.5</v>
       </c>
-      <c r="I7" s="37">
+      <c r="I7" s="36">
         <v>10</v>
       </c>
-      <c r="J7" s="37">
+      <c r="J7" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="36">
+      <c r="A8" s="35">
         <v>6</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="35">
         <v>4</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="35">
         <v>501</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="36">
         <v>8000</v>
       </c>
-      <c r="F8" s="41">
+      <c r="F8" s="40">
         <f t="shared" si="0"/>
         <v>7.1428571428571432</v>
       </c>
-      <c r="G8" s="58">
+      <c r="G8" s="57">
         <v>10</v>
       </c>
-      <c r="H8" s="39">
+      <c r="H8" s="38">
         <v>21</v>
       </c>
-      <c r="I8" s="37">
+      <c r="I8" s="36">
         <v>50</v>
       </c>
-      <c r="J8" s="37">
+      <c r="J8" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="36">
+      <c r="A9" s="35">
         <v>7</v>
       </c>
-      <c r="B9" s="36">
+      <c r="B9" s="35">
         <v>4</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="D9" s="36">
+      <c r="D9" s="35">
         <v>501</v>
       </c>
-      <c r="E9" s="37">
+      <c r="E9" s="36">
         <v>8000</v>
       </c>
-      <c r="F9" s="41">
+      <c r="F9" s="40">
         <f t="shared" si="0"/>
         <v>5.7142857142857144</v>
       </c>
-      <c r="G9" s="58">
+      <c r="G9" s="57">
         <v>8</v>
       </c>
-      <c r="H9" s="39">
+      <c r="H9" s="38">
         <v>21</v>
       </c>
-      <c r="I9" s="37">
+      <c r="I9" s="36">
         <v>50</v>
       </c>
-      <c r="J9" s="37">
+      <c r="J9" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="36">
+      <c r="A10" s="35">
         <v>8</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="35">
         <v>4</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D10" s="35">
         <v>501</v>
       </c>
-      <c r="E10" s="37">
+      <c r="E10" s="36">
         <v>6000</v>
       </c>
-      <c r="F10" s="41">
+      <c r="F10" s="40">
         <f t="shared" si="0"/>
         <v>4.2857142857142856</v>
       </c>
-      <c r="G10" s="58">
+      <c r="G10" s="57">
         <v>6</v>
       </c>
-      <c r="H10" s="39">
+      <c r="H10" s="38">
         <v>21</v>
       </c>
-      <c r="I10" s="37">
+      <c r="I10" s="36">
         <v>50</v>
       </c>
-      <c r="J10" s="37">
+      <c r="J10" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="36">
+      <c r="A11" s="35">
         <v>9</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="35">
         <v>4</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="D11" s="36">
+      <c r="D11" s="35">
         <v>501</v>
       </c>
-      <c r="E11" s="37">
+      <c r="E11" s="36">
         <v>100</v>
       </c>
-      <c r="F11" s="41">
+      <c r="F11" s="40">
         <f t="shared" si="0"/>
         <v>3.5714285714285716</v>
       </c>
-      <c r="G11" s="58">
+      <c r="G11" s="57">
         <v>5</v>
       </c>
-      <c r="H11" s="39">
+      <c r="H11" s="38">
         <v>21</v>
       </c>
-      <c r="I11" s="37">
+      <c r="I11" s="36">
         <v>10</v>
       </c>
-      <c r="J11" s="37">
+      <c r="J11" s="36">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="75" t="s">
-        <v>203</v>
-      </c>
-      <c r="B13" s="75"/>
-      <c r="C13" s="75"/>
+      <c r="A13" s="89" t="s">
+        <v>202</v>
+      </c>
+      <c r="B13" s="89"/>
+      <c r="C13" s="89"/>
+      <c r="E13" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="76">
+      <c r="A14" s="90">
         <v>40</v>
       </c>
-      <c r="B14" s="76"/>
-      <c r="C14" s="76"/>
+      <c r="B14" s="90"/>
+      <c r="C14" s="90"/>
+      <c r="F14" t="s">
+        <v>297</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G15" s="23"/>
-    </row>
-    <row r="20" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G20" t="s">
-        <v>194</v>
+      <c r="G15" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="17" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G17" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="H17" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="18" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="19" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="I19" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="20" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="I20" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="21" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="H21" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="22" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="I22" t="s">
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -5631,18 +5709,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="91" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
@@ -6059,450 +6137,450 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
-        <v>229</v>
-      </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
+      <c r="A1" s="87" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="32" t="s">
         <v>54</v>
       </c>
-      <c r="H2" s="35" t="s">
+      <c r="H2" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="35" t="s">
+      <c r="I2" s="34" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="36">
-        <v>1</v>
-      </c>
-      <c r="B3" s="37" t="s">
+      <c r="A3" s="35">
+        <v>1</v>
+      </c>
+      <c r="B3" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="38" t="s">
+      <c r="G3" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="39" t="s">
+      <c r="H3" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="39">
+      <c r="I3" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="36">
+      <c r="A4" s="35">
         <v>2</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="F4" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="39" t="s">
+      <c r="H4" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="I4" s="39">
+      <c r="I4" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="36">
+      <c r="A5" s="35">
         <v>3</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="37" t="s">
+      <c r="F5" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="39" t="s">
+      <c r="H5" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="I5" s="39">
+      <c r="I5" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="36">
+      <c r="A6" s="35">
         <v>4</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="F6" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="39" t="s">
+      <c r="H6" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="I6" s="39">
+      <c r="I6" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="36">
+      <c r="A7" s="35">
         <v>5</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="G7" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="39" t="s">
+      <c r="H7" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="I7" s="39">
+      <c r="I7" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="36">
+      <c r="A8" s="35">
         <v>6</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="37" t="s">
+      <c r="F8" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="H8" s="39" t="s">
+      <c r="H8" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="39">
+      <c r="I8" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="36">
+      <c r="A9" s="35">
         <v>7</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="F9" s="37" t="s">
+      <c r="F9" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="40" t="s">
+      <c r="G9" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="39" t="s">
+      <c r="H9" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="39">
+      <c r="I9" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="36">
+      <c r="A10" s="35">
         <v>8</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="37" t="s">
+      <c r="F10" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="39" t="s">
+      <c r="H10" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="39">
+      <c r="I10" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="36">
+      <c r="A11" s="35">
         <v>9</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="F11" s="37" t="s">
+      <c r="F11" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="G11" s="40" t="s">
+      <c r="G11" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="39" t="s">
+      <c r="H11" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="I11" s="39">
+      <c r="I11" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="36">
+      <c r="A12" s="35">
         <v>10</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="E12" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="F12" s="37" t="s">
+      <c r="F12" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="G12" s="38" t="s">
+      <c r="G12" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="H12" s="39" t="s">
+      <c r="H12" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="I12" s="39">
+      <c r="I12" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="36">
+      <c r="A13" s="35">
         <v>11</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="E13" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="37" t="s">
+      <c r="F13" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="40" t="s">
+      <c r="G13" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="H13" s="39" t="s">
+      <c r="H13" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="I13" s="39">
+      <c r="I13" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="36">
+      <c r="A14" s="35">
         <v>13</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="37" t="s">
+      <c r="E14" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="F14" s="37" t="s">
+      <c r="F14" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="G14" s="40" t="s">
+      <c r="G14" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="H14" s="39" t="s">
+      <c r="H14" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="I14" s="39">
+      <c r="I14" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="36">
+      <c r="A15" s="35">
         <v>14</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="37" t="s">
+      <c r="E15" s="36" t="s">
         <v>79</v>
       </c>
-      <c r="F15" s="37" t="s">
+      <c r="F15" s="36" t="s">
         <v>80</v>
       </c>
-      <c r="G15" s="40" t="s">
+      <c r="G15" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="H15" s="39" t="s">
+      <c r="H15" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="I15" s="39">
+      <c r="I15" s="38">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="36">
+      <c r="A16" s="35">
         <v>15</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="37" t="s">
+      <c r="E16" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="F16" s="37" t="s">
+      <c r="F16" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="G16" s="40" t="s">
+      <c r="G16" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="39" t="s">
+      <c r="H16" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="I16" s="39">
+      <c r="I16" s="38">
         <v>1</v>
       </c>
     </row>
@@ -6544,244 +6622,244 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="87" t="s">
         <v>172</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="73"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="33" t="s">
         <v>174</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="33" t="s">
         <v>170</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="E2" s="34" t="s">
+      <c r="E2" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="34" t="s">
+      <c r="F2" s="33" t="s">
         <v>159</v>
       </c>
-      <c r="G2" s="34" t="s">
+      <c r="G2" s="33" t="s">
         <v>160</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="H2" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="I2" s="34" t="s">
+      <c r="I2" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="J2" s="33" t="s">
         <v>163</v>
       </c>
-      <c r="K2" s="34" t="s">
+      <c r="K2" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="L2" s="34" t="s">
+      <c r="L2" s="33" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="37">
-        <v>1</v>
-      </c>
-      <c r="B3" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="37">
+      <c r="A3" s="36">
+        <v>1</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="36">
         <v>100</v>
       </c>
-      <c r="D3" s="37">
+      <c r="D3" s="36">
         <v>2</v>
       </c>
-      <c r="E3" s="37">
+      <c r="E3" s="36">
         <v>6</v>
       </c>
-      <c r="F3" s="42">
+      <c r="F3" s="41">
         <v>110</v>
       </c>
-      <c r="G3" s="41">
+      <c r="G3" s="40">
         <v>138.6</v>
       </c>
-      <c r="H3" s="41">
+      <c r="H3" s="40">
         <v>660</v>
       </c>
-      <c r="I3" s="41">
+      <c r="I3" s="40">
         <f>+G3+H3</f>
         <v>798.6</v>
       </c>
-      <c r="J3" s="37">
+      <c r="J3" s="36">
         <v>102</v>
       </c>
-      <c r="K3" s="37">
+      <c r="K3" s="36">
         <v>5</v>
       </c>
-      <c r="L3" s="37" t="s">
+      <c r="L3" s="36" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="37">
-        <v>1</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="37">
+      <c r="A4" s="36">
+        <v>1</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="36">
         <v>100</v>
       </c>
-      <c r="D4" s="37">
+      <c r="D4" s="36">
         <v>3</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E4" s="36">
         <v>6</v>
       </c>
-      <c r="F4" s="42">
+      <c r="F4" s="41">
         <v>210</v>
       </c>
-      <c r="G4" s="41">
+      <c r="G4" s="40">
         <v>264.60000000000002</v>
       </c>
-      <c r="H4" s="41">
+      <c r="H4" s="40">
         <v>1260</v>
       </c>
-      <c r="I4" s="41">
+      <c r="I4" s="40">
         <f>+G4+H4</f>
         <v>1524.6</v>
       </c>
-      <c r="J4" s="37">
+      <c r="J4" s="36">
         <v>102</v>
       </c>
-      <c r="K4" s="37">
+      <c r="K4" s="36">
         <v>5</v>
       </c>
-      <c r="L4" s="37" t="s">
+      <c r="L4" s="36" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="37">
-        <v>1</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="37">
+      <c r="A5" s="36">
+        <v>1</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="36">
         <v>100</v>
       </c>
-      <c r="D5" s="37">
+      <c r="D5" s="36">
         <v>2</v>
       </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37">
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36">
         <v>3</v>
       </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -6814,1373 +6892,1373 @@
     <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="2.28515625" customWidth="1"/>
-    <col min="13" max="13" width="5.7109375" style="47" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="46.28515625" style="47" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="46.28515625" style="46" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="92" t="s">
         <v>185</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
-      <c r="I1" s="78"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="47" t="s">
         <v>186</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="48" t="s">
         <v>187</v>
       </c>
-      <c r="C2" s="48" t="s">
-        <v>227</v>
-      </c>
-      <c r="D2" s="48" t="s">
+      <c r="C2" s="47" t="s">
         <v>226</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="D2" s="47" t="s">
+        <v>225</v>
+      </c>
+      <c r="E2" s="48" t="s">
         <v>188</v>
       </c>
-      <c r="F2" s="50" t="s">
+      <c r="F2" s="49" t="s">
         <v>189</v>
       </c>
-      <c r="G2" s="50" t="s">
+      <c r="G2" s="49" t="s">
         <v>181</v>
       </c>
-      <c r="H2" s="49" t="s">
-        <v>222</v>
-      </c>
-      <c r="I2" s="50" t="s">
-        <v>224</v>
-      </c>
-      <c r="J2" s="49" t="s">
+      <c r="H2" s="48" t="s">
+        <v>221</v>
+      </c>
+      <c r="I2" s="49" t="s">
+        <v>223</v>
+      </c>
+      <c r="J2" s="48" t="s">
         <v>174</v>
       </c>
-      <c r="K2" s="49" t="s">
+      <c r="K2" s="48" t="s">
         <v>168</v>
       </c>
-      <c r="M2" s="57">
+      <c r="M2" s="56">
         <v>100</v>
       </c>
-      <c r="N2" s="57" t="s">
+      <c r="N2" s="56" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="43">
+      <c r="A3" s="42">
         <v>43789</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="58" t="s">
         <v>190</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="46">
-        <v>1</v>
-      </c>
-      <c r="E3" s="44" t="s">
+      <c r="D3" s="45">
+        <v>1</v>
+      </c>
+      <c r="E3" s="43" t="s">
         <v>191</v>
       </c>
-      <c r="F3" s="45">
+      <c r="F3" s="44">
         <v>4132.2299999999996</v>
       </c>
-      <c r="G3" s="45"/>
-      <c r="H3" s="46">
+      <c r="G3" s="44"/>
+      <c r="H3" s="45">
         <v>105</v>
       </c>
-      <c r="I3" s="45">
+      <c r="I3" s="44">
         <f>+F3-G3</f>
         <v>4132.2299999999996</v>
       </c>
-      <c r="J3" s="62" t="s">
-        <v>223</v>
-      </c>
-      <c r="K3" s="46">
+      <c r="J3" s="61" t="s">
+        <v>222</v>
+      </c>
+      <c r="K3" s="45">
         <v>1153</v>
       </c>
-      <c r="M3" s="51">
+      <c r="M3" s="50">
         <v>101</v>
       </c>
-      <c r="N3" s="52" t="s">
+      <c r="N3" s="51" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="43">
+      <c r="A4" s="42">
         <v>43789</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="58" t="s">
         <v>190</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="46">
-        <v>1</v>
-      </c>
-      <c r="E4" s="44" t="s">
+      <c r="D4" s="45">
+        <v>1</v>
+      </c>
+      <c r="E4" s="43" t="s">
         <v>191</v>
       </c>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45">
+      <c r="F4" s="44"/>
+      <c r="G4" s="44">
         <v>5000</v>
       </c>
-      <c r="H4" s="46">
+      <c r="H4" s="45">
         <v>102</v>
       </c>
-      <c r="I4" s="45">
+      <c r="I4" s="44">
         <f t="shared" ref="I4:I15" si="0">+F4-G4</f>
         <v>-5000</v>
       </c>
-      <c r="J4" s="62" t="s">
-        <v>223</v>
-      </c>
-      <c r="K4" s="46">
+      <c r="J4" s="61" t="s">
+        <v>222</v>
+      </c>
+      <c r="K4" s="45">
         <v>1153</v>
       </c>
-      <c r="M4" s="53">
+      <c r="M4" s="52">
         <v>102</v>
       </c>
-      <c r="N4" s="53" t="s">
+      <c r="N4" s="52" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="43">
+      <c r="A5" s="42">
         <v>43789</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="58" t="s">
         <v>190</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="46">
-        <v>1</v>
-      </c>
-      <c r="E5" s="44" t="s">
+      <c r="D5" s="45">
+        <v>1</v>
+      </c>
+      <c r="E5" s="43" t="s">
         <v>191</v>
       </c>
-      <c r="F5" s="45">
+      <c r="F5" s="44">
         <v>867.77</v>
       </c>
-      <c r="G5" s="45"/>
-      <c r="H5" s="46">
+      <c r="G5" s="44"/>
+      <c r="H5" s="45">
         <v>204</v>
       </c>
-      <c r="I5" s="45">
+      <c r="I5" s="44">
         <f t="shared" si="0"/>
         <v>867.77</v>
       </c>
-      <c r="J5" s="62" t="s">
-        <v>223</v>
-      </c>
-      <c r="K5" s="46">
+      <c r="J5" s="61" t="s">
+        <v>222</v>
+      </c>
+      <c r="K5" s="45">
         <v>1153</v>
       </c>
-      <c r="M5" s="53">
+      <c r="M5" s="52">
         <v>103</v>
       </c>
-      <c r="N5" s="53" t="s">
+      <c r="N5" s="52" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="43">
+      <c r="A6" s="42">
         <v>43790</v>
       </c>
-      <c r="B6" s="60" t="s">
-        <v>225</v>
-      </c>
-      <c r="C6" s="46" t="s">
+      <c r="B6" s="59" t="s">
+        <v>224</v>
+      </c>
+      <c r="C6" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="45">
         <v>4</v>
       </c>
-      <c r="E6" s="44" t="s">
-        <v>228</v>
-      </c>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45">
+      <c r="E6" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44">
         <v>85.71</v>
       </c>
-      <c r="H6" s="46">
+      <c r="H6" s="45">
         <v>501</v>
       </c>
-      <c r="I6" s="45">
+      <c r="I6" s="44">
         <f t="shared" si="0"/>
         <v>-85.71</v>
       </c>
-      <c r="J6" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="K6" s="46">
+      <c r="J6" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="45">
         <v>1154</v>
       </c>
-      <c r="M6" s="53">
+      <c r="M6" s="52">
         <v>104</v>
       </c>
-      <c r="N6" s="53" t="s">
+      <c r="N6" s="52" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="43">
+      <c r="A7" s="42">
         <v>43790</v>
       </c>
-      <c r="B7" s="60" t="s">
-        <v>225</v>
-      </c>
-      <c r="C7" s="46" t="s">
+      <c r="B7" s="59" t="s">
+        <v>224</v>
+      </c>
+      <c r="C7" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="46">
+      <c r="D7" s="45">
         <v>4</v>
       </c>
-      <c r="E7" s="44" t="s">
-        <v>228</v>
-      </c>
-      <c r="F7" s="45">
+      <c r="E7" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="F7" s="44">
         <v>120</v>
       </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="46">
+      <c r="G7" s="44"/>
+      <c r="H7" s="45">
         <v>102</v>
       </c>
-      <c r="I7" s="45">
+      <c r="I7" s="44">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="J7" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="K7" s="46">
+      <c r="J7" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" s="45">
         <v>1154</v>
       </c>
-      <c r="M7" s="53">
+      <c r="M7" s="52">
         <v>105</v>
       </c>
-      <c r="N7" s="53" t="s">
+      <c r="N7" s="52" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="43">
+      <c r="A8" s="42">
         <v>43790</v>
       </c>
-      <c r="B8" s="60" t="s">
-        <v>225</v>
-      </c>
-      <c r="C8" s="46" t="s">
+      <c r="B8" s="59" t="s">
+        <v>224</v>
+      </c>
+      <c r="C8" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="46">
+      <c r="D8" s="45">
         <v>4</v>
       </c>
-      <c r="E8" s="44" t="s">
-        <v>228</v>
-      </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45">
+      <c r="E8" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44">
         <v>34.29</v>
       </c>
-      <c r="H8" s="46">
+      <c r="H8" s="45">
         <v>203</v>
       </c>
-      <c r="I8" s="45">
+      <c r="I8" s="44">
         <f t="shared" si="0"/>
         <v>-34.29</v>
       </c>
-      <c r="J8" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="K8" s="46">
+      <c r="J8" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" s="45">
         <v>1154</v>
       </c>
-      <c r="M8" s="51">
+      <c r="M8" s="50">
         <v>106</v>
       </c>
-      <c r="N8" s="51" t="s">
+      <c r="N8" s="50" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="43">
+      <c r="A9" s="42">
         <v>43789</v>
       </c>
-      <c r="B9" s="60" t="s">
-        <v>225</v>
-      </c>
-      <c r="C9" s="46" t="s">
+      <c r="B9" s="59" t="s">
+        <v>224</v>
+      </c>
+      <c r="C9" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="D9" s="46">
+      <c r="D9" s="45">
         <v>6</v>
       </c>
-      <c r="E9" s="44" t="s">
+      <c r="E9" s="43" t="s">
         <v>191</v>
       </c>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45">
+      <c r="F9" s="44"/>
+      <c r="G9" s="44">
         <v>5785.12</v>
       </c>
-      <c r="H9" s="46">
+      <c r="H9" s="45">
         <v>105</v>
       </c>
-      <c r="I9" s="45">
+      <c r="I9" s="44">
         <f>+F9-G9</f>
         <v>-5785.12</v>
       </c>
-      <c r="J9" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="K9" s="46">
+      <c r="J9" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9" s="45">
         <v>1155</v>
       </c>
-      <c r="M9" s="51">
+      <c r="M9" s="50">
         <v>107</v>
       </c>
-      <c r="N9" s="51" t="s">
+      <c r="N9" s="50" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="43">
+      <c r="A10" s="42">
         <v>43789</v>
       </c>
-      <c r="B10" s="60" t="s">
-        <v>225</v>
-      </c>
-      <c r="C10" s="46" t="s">
+      <c r="B10" s="59" t="s">
+        <v>224</v>
+      </c>
+      <c r="C10" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="46">
+      <c r="D10" s="45">
         <v>6</v>
       </c>
-      <c r="E10" s="44" t="s">
+      <c r="E10" s="43" t="s">
         <v>191</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="44">
         <v>7000</v>
       </c>
-      <c r="G10" s="45"/>
-      <c r="H10" s="46">
+      <c r="G10" s="44"/>
+      <c r="H10" s="45">
         <v>102</v>
       </c>
-      <c r="I10" s="45">
+      <c r="I10" s="44">
         <f t="shared" ref="I10:I14" si="1">+F10-G10</f>
         <v>7000</v>
       </c>
-      <c r="J10" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="K10" s="46">
+      <c r="J10" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="45">
         <v>1155</v>
       </c>
-      <c r="M10" s="51">
+      <c r="M10" s="50">
         <v>108</v>
       </c>
-      <c r="N10" s="51" t="s">
+      <c r="N10" s="50" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="43">
+      <c r="A11" s="42">
         <v>43789</v>
       </c>
-      <c r="B11" s="60" t="s">
-        <v>225</v>
-      </c>
-      <c r="C11" s="46" t="s">
+      <c r="B11" s="59" t="s">
+        <v>224</v>
+      </c>
+      <c r="C11" s="45" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="46">
+      <c r="D11" s="45">
         <v>6</v>
       </c>
-      <c r="E11" s="44" t="s">
+      <c r="E11" s="43" t="s">
         <v>191</v>
       </c>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45">
+      <c r="F11" s="44"/>
+      <c r="G11" s="44">
         <v>1214.8800000000001</v>
       </c>
-      <c r="H11" s="46">
+      <c r="H11" s="45">
         <v>204</v>
       </c>
-      <c r="I11" s="45">
+      <c r="I11" s="44">
         <f t="shared" si="1"/>
         <v>-1214.8800000000001</v>
       </c>
-      <c r="J11" s="61" t="s">
-        <v>1</v>
-      </c>
-      <c r="K11" s="46">
+      <c r="J11" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" s="45">
         <v>1155</v>
       </c>
-      <c r="M11" s="57">
+      <c r="M11" s="56">
         <v>200</v>
       </c>
-      <c r="N11" s="57" t="s">
+      <c r="N11" s="56" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="43">
+      <c r="A12" s="42">
         <v>43790</v>
       </c>
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="58" t="s">
         <v>190</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="46">
-        <v>1</v>
-      </c>
-      <c r="E12" s="44" t="s">
+      <c r="D12" s="45">
+        <v>1</v>
+      </c>
+      <c r="E12" s="43" t="s">
         <v>191</v>
       </c>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45">
+      <c r="F12" s="44"/>
+      <c r="G12" s="44">
         <v>5000</v>
       </c>
-      <c r="H12" s="46">
+      <c r="H12" s="45">
         <v>102</v>
       </c>
-      <c r="I12" s="45">
+      <c r="I12" s="44">
         <f t="shared" si="1"/>
         <v>-5000</v>
       </c>
-      <c r="J12" s="62" t="s">
-        <v>223</v>
-      </c>
-      <c r="K12" s="46">
+      <c r="J12" s="61" t="s">
+        <v>222</v>
+      </c>
+      <c r="K12" s="45">
         <v>1154</v>
       </c>
-      <c r="M12" s="51">
+      <c r="M12" s="50">
         <v>201</v>
       </c>
-      <c r="N12" s="51" t="s">
+      <c r="N12" s="50" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="43">
+      <c r="A13" s="42">
         <v>43790</v>
       </c>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="58" t="s">
         <v>190</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="46">
-        <v>1</v>
-      </c>
-      <c r="E13" s="44" t="s">
+      <c r="D13" s="45">
+        <v>1</v>
+      </c>
+      <c r="E13" s="43" t="s">
         <v>191</v>
       </c>
-      <c r="F13" s="45">
+      <c r="F13" s="44">
         <v>4132.2299999999996</v>
       </c>
-      <c r="G13" s="45"/>
-      <c r="H13" s="46">
+      <c r="G13" s="44"/>
+      <c r="H13" s="45">
         <v>102</v>
       </c>
-      <c r="I13" s="45">
+      <c r="I13" s="44">
         <f t="shared" si="1"/>
         <v>4132.2299999999996</v>
       </c>
-      <c r="J13" s="62" t="s">
-        <v>223</v>
-      </c>
-      <c r="K13" s="46">
+      <c r="J13" s="61" t="s">
+        <v>222</v>
+      </c>
+      <c r="K13" s="45">
         <v>1154</v>
       </c>
-      <c r="M13" s="53">
+      <c r="M13" s="52">
         <v>202</v>
       </c>
-      <c r="N13" s="53" t="s">
+      <c r="N13" s="52" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="43">
+      <c r="A14" s="42">
         <v>43790</v>
       </c>
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="58" t="s">
         <v>190</v>
       </c>
-      <c r="C14" s="46" t="s">
+      <c r="C14" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="46">
-        <v>1</v>
-      </c>
-      <c r="E14" s="44" t="s">
+      <c r="D14" s="45">
+        <v>1</v>
+      </c>
+      <c r="E14" s="43" t="s">
         <v>191</v>
       </c>
-      <c r="F14" s="45">
+      <c r="F14" s="44">
         <v>867.77</v>
       </c>
-      <c r="G14" s="45"/>
-      <c r="H14" s="46">
+      <c r="G14" s="44"/>
+      <c r="H14" s="45">
         <v>203</v>
       </c>
-      <c r="I14" s="45">
+      <c r="I14" s="44">
         <f t="shared" si="1"/>
         <v>867.77</v>
       </c>
-      <c r="J14" s="62" t="s">
-        <v>223</v>
-      </c>
-      <c r="K14" s="46">
+      <c r="J14" s="61" t="s">
+        <v>222</v>
+      </c>
+      <c r="K14" s="45">
         <v>1154</v>
       </c>
-      <c r="M14" s="53">
+      <c r="M14" s="52">
         <v>203</v>
       </c>
-      <c r="N14" s="53" t="s">
+      <c r="N14" s="52" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="47"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
-      <c r="F15" s="54">
+      <c r="A15" s="46"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="53">
         <f>SUM(F3:F14)</f>
         <v>17120</v>
       </c>
-      <c r="G15" s="54">
+      <c r="G15" s="53">
         <f>SUM(G3:G14)</f>
         <v>17120</v>
       </c>
-      <c r="H15" s="55"/>
-      <c r="I15" s="54">
+      <c r="H15" s="54"/>
+      <c r="I15" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J15" s="47"/>
-      <c r="K15" s="47"/>
-      <c r="M15" s="53">
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="M15" s="52">
         <v>204</v>
       </c>
-      <c r="N15" s="53" t="s">
+      <c r="N15" s="52" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="M16" s="53">
+      <c r="M16" s="52">
         <v>205</v>
       </c>
-      <c r="N16" s="53" t="s">
+      <c r="N16" s="52" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="17" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M17" s="53">
+      <c r="M17" s="52">
         <v>206</v>
       </c>
-      <c r="N17" s="53" t="s">
+      <c r="N17" s="52" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="18" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M18" s="51">
+      <c r="M18" s="50">
         <v>208</v>
       </c>
-      <c r="N18" s="51" t="s">
+      <c r="N18" s="50" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="19" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M19" s="51">
+      <c r="M19" s="50">
         <v>209</v>
       </c>
-      <c r="N19" s="51" t="s">
+      <c r="N19" s="50" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="20" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M20" s="51">
+      <c r="M20" s="50">
         <v>210</v>
       </c>
-      <c r="N20" s="52" t="s">
+      <c r="N20" s="51" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="21" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M21" s="57">
+      <c r="M21" s="56">
         <v>300</v>
       </c>
-      <c r="N21" s="57" t="s">
+      <c r="N21" s="56" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="22" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M22" s="51">
+      <c r="M22" s="50">
         <v>301</v>
       </c>
-      <c r="N22" s="52" t="s">
+      <c r="N22" s="51" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="23" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M23" s="51">
+      <c r="M23" s="50">
         <v>302</v>
       </c>
-      <c r="N23" s="51" t="s">
+      <c r="N23" s="50" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="24" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M24" s="51">
+      <c r="M24" s="50">
         <v>303</v>
       </c>
-      <c r="N24" s="52" t="s">
+      <c r="N24" s="51" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="25" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M25" s="51">
+      <c r="M25" s="50">
         <v>304</v>
       </c>
-      <c r="N25" s="51" t="s">
+      <c r="N25" s="50" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="26" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M26" s="51">
+      <c r="M26" s="50">
         <v>305</v>
       </c>
-      <c r="N26" s="51" t="s">
+      <c r="N26" s="50" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="27" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M27" s="57">
+      <c r="M27" s="56">
         <v>400</v>
       </c>
-      <c r="N27" s="57" t="s">
+      <c r="N27" s="56" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="28" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M28" s="53">
+      <c r="M28" s="52">
         <v>401</v>
       </c>
-      <c r="N28" s="53" t="s">
+      <c r="N28" s="52" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="29" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M29" s="51">
+      <c r="M29" s="50">
         <v>402</v>
       </c>
-      <c r="N29" s="51" t="s">
+      <c r="N29" s="50" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="30" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M30" s="51">
+      <c r="M30" s="50">
         <v>403</v>
       </c>
-      <c r="N30" s="51" t="s">
+      <c r="N30" s="50" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="31" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M31" s="57">
+      <c r="M31" s="56">
         <v>500</v>
       </c>
-      <c r="N31" s="57" t="s">
+      <c r="N31" s="56" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="32" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M32" s="53">
+      <c r="M32" s="52">
         <v>501</v>
       </c>
-      <c r="N32" s="53" t="s">
+      <c r="N32" s="52" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="M33" s="51">
+      <c r="M33" s="50">
         <v>502</v>
       </c>
-      <c r="N33" s="51" t="s">
+      <c r="N33" s="50" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="M34" s="53">
+      <c r="M34" s="52">
         <v>503</v>
       </c>
-      <c r="N34" s="53" t="s">
+      <c r="N34" s="52" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="M35" s="53">
+      <c r="M35" s="52">
         <v>506</v>
       </c>
-      <c r="N35" s="53" t="s">
+      <c r="N35" s="52" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B36" s="80" t="s">
-        <v>240</v>
-      </c>
-      <c r="C36" s="80"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="80"/>
-      <c r="F36" s="80"/>
-      <c r="G36" s="80"/>
-      <c r="H36" s="80"/>
-      <c r="M36" s="53">
+      <c r="B36" s="94" t="s">
+        <v>239</v>
+      </c>
+      <c r="C36" s="94"/>
+      <c r="D36" s="94"/>
+      <c r="E36" s="94"/>
+      <c r="F36" s="94"/>
+      <c r="G36" s="94"/>
+      <c r="H36" s="94"/>
+      <c r="M36" s="52">
         <v>507</v>
       </c>
-      <c r="N36" s="53" t="s">
+      <c r="N36" s="52" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B37" s="79" t="s">
-        <v>243</v>
-      </c>
-      <c r="C37" s="79"/>
-      <c r="D37" s="79"/>
-      <c r="E37" s="79"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="79"/>
-      <c r="M37" s="53">
+      <c r="B37" s="93" t="s">
+        <v>242</v>
+      </c>
+      <c r="C37" s="93"/>
+      <c r="D37" s="93"/>
+      <c r="E37" s="93"/>
+      <c r="F37" s="93"/>
+      <c r="G37" s="93"/>
+      <c r="M37" s="52">
         <v>508</v>
       </c>
-      <c r="N37" s="53" t="s">
+      <c r="N37" s="52" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B38" s="63" t="s">
+      <c r="B38" s="62" t="s">
+        <v>230</v>
+      </c>
+      <c r="C38" s="62" t="s">
+        <v>234</v>
+      </c>
+      <c r="D38" s="62" t="s">
+        <v>233</v>
+      </c>
+      <c r="E38" s="63" t="s">
         <v>231</v>
       </c>
-      <c r="C38" s="63" t="s">
+      <c r="F38" s="63" t="s">
+        <v>232</v>
+      </c>
+      <c r="G38" s="63" t="s">
+        <v>223</v>
+      </c>
+      <c r="M38" s="52">
+        <v>509</v>
+      </c>
+      <c r="N38" s="52" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="70">
+        <v>44105</v>
+      </c>
+      <c r="C39" s="62" t="s">
+        <v>241</v>
+      </c>
+      <c r="D39" s="62" t="s">
         <v>235</v>
       </c>
-      <c r="D38" s="63" t="s">
-        <v>234</v>
-      </c>
-      <c r="E38" s="64" t="s">
-        <v>232</v>
-      </c>
-      <c r="F38" s="64" t="s">
-        <v>233</v>
-      </c>
-      <c r="G38" s="64" t="s">
-        <v>224</v>
-      </c>
-      <c r="M38" s="53">
-        <v>509</v>
-      </c>
-      <c r="N38" s="53" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B39" s="71">
-        <v>44105</v>
-      </c>
-      <c r="C39" s="63" t="s">
-        <v>242</v>
-      </c>
-      <c r="D39" s="63" t="s">
-        <v>236</v>
-      </c>
-      <c r="E39" s="67">
+      <c r="E39" s="66">
         <v>1239.67</v>
       </c>
-      <c r="F39" s="68">
+      <c r="F39" s="67">
         <v>0</v>
       </c>
-      <c r="G39" s="68">
+      <c r="G39" s="67">
         <f>+E39-F39</f>
         <v>1239.67</v>
       </c>
-      <c r="M39" s="53">
+      <c r="M39" s="52">
         <v>513</v>
       </c>
-      <c r="N39" s="53" t="s">
+      <c r="N39" s="52" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B40" s="71">
+      <c r="B40" s="70">
         <v>44114</v>
       </c>
-      <c r="C40" s="63" t="s">
-        <v>242</v>
-      </c>
-      <c r="D40" s="63" t="s">
-        <v>237</v>
-      </c>
-      <c r="E40" s="67">
+      <c r="C40" s="62" t="s">
+        <v>241</v>
+      </c>
+      <c r="D40" s="62" t="s">
+        <v>236</v>
+      </c>
+      <c r="E40" s="66">
         <v>0</v>
       </c>
-      <c r="F40" s="68">
+      <c r="F40" s="67">
         <v>165.29</v>
       </c>
-      <c r="G40" s="68">
+      <c r="G40" s="67">
         <f>+G39+E40-F40</f>
         <v>1074.3800000000001</v>
       </c>
-      <c r="M40" s="51">
+      <c r="M40" s="50">
         <v>515</v>
       </c>
-      <c r="N40" s="51" t="s">
+      <c r="N40" s="50" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B41" s="71">
+      <c r="B41" s="70">
         <v>44115</v>
       </c>
-      <c r="C41" s="63" t="s">
-        <v>242</v>
-      </c>
-      <c r="D41" s="63" t="s">
-        <v>237</v>
-      </c>
-      <c r="E41" s="67">
+      <c r="C41" s="62" t="s">
+        <v>241</v>
+      </c>
+      <c r="D41" s="62" t="s">
+        <v>236</v>
+      </c>
+      <c r="E41" s="66">
         <v>0</v>
       </c>
-      <c r="F41" s="68">
+      <c r="F41" s="67">
         <v>247.93</v>
       </c>
-      <c r="G41" s="68">
+      <c r="G41" s="67">
         <f t="shared" ref="G41:G45" si="2">+G40+E41-F41</f>
         <v>826.45</v>
       </c>
-      <c r="M41" s="51">
+      <c r="M41" s="50">
         <v>516</v>
       </c>
-      <c r="N41" s="51" t="s">
+      <c r="N41" s="50" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="42" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B42" s="71">
+      <c r="B42" s="70">
         <v>44119</v>
       </c>
-      <c r="C42" s="63" t="s">
-        <v>242</v>
-      </c>
-      <c r="D42" s="63" t="s">
-        <v>238</v>
-      </c>
-      <c r="E42" s="67">
+      <c r="C42" s="62" t="s">
+        <v>241</v>
+      </c>
+      <c r="D42" s="62" t="s">
+        <v>237</v>
+      </c>
+      <c r="E42" s="66">
         <v>1239.67</v>
       </c>
-      <c r="F42" s="68">
+      <c r="F42" s="67">
         <v>0</v>
       </c>
-      <c r="G42" s="68">
+      <c r="G42" s="67">
         <f t="shared" si="2"/>
         <v>2066.12</v>
       </c>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B43" s="71">
+      <c r="B43" s="70">
         <v>44124</v>
       </c>
-      <c r="C43" s="63" t="s">
-        <v>242</v>
-      </c>
-      <c r="D43" s="63" t="s">
-        <v>238</v>
-      </c>
-      <c r="E43" s="67">
+      <c r="C43" s="62" t="s">
+        <v>241</v>
+      </c>
+      <c r="D43" s="62" t="s">
+        <v>237</v>
+      </c>
+      <c r="E43" s="66">
         <v>165.29</v>
       </c>
-      <c r="F43" s="68">
+      <c r="F43" s="67">
         <v>0</v>
       </c>
-      <c r="G43" s="68">
+      <c r="G43" s="67">
         <f t="shared" si="2"/>
         <v>2231.41</v>
       </c>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B44" s="71">
+      <c r="B44" s="70">
         <v>44129</v>
       </c>
-      <c r="C44" s="63" t="s">
-        <v>242</v>
-      </c>
-      <c r="D44" s="63" t="s">
-        <v>237</v>
-      </c>
-      <c r="E44" s="67">
+      <c r="C44" s="62" t="s">
+        <v>241</v>
+      </c>
+      <c r="D44" s="62" t="s">
+        <v>236</v>
+      </c>
+      <c r="E44" s="66">
         <v>0</v>
       </c>
-      <c r="F44" s="68">
+      <c r="F44" s="67">
         <v>231.4</v>
       </c>
-      <c r="G44" s="68">
+      <c r="G44" s="67">
         <f t="shared" si="2"/>
         <v>2000.0099999999998</v>
       </c>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B45" s="71">
+      <c r="B45" s="70">
         <v>44130</v>
       </c>
-      <c r="C45" s="63" t="s">
-        <v>242</v>
-      </c>
-      <c r="D45" s="63" t="s">
-        <v>238</v>
-      </c>
-      <c r="E45" s="67">
+      <c r="C45" s="62" t="s">
+        <v>241</v>
+      </c>
+      <c r="D45" s="62" t="s">
+        <v>237</v>
+      </c>
+      <c r="E45" s="66">
         <v>82.64</v>
       </c>
-      <c r="F45" s="68">
+      <c r="F45" s="67">
         <v>0</v>
       </c>
-      <c r="G45" s="68">
+      <c r="G45" s="67">
         <f t="shared" si="2"/>
         <v>2082.6499999999996</v>
       </c>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B46" s="72">
+      <c r="B46" s="71">
         <v>44130</v>
       </c>
-      <c r="C46" s="65"/>
-      <c r="D46" s="66" t="s">
-        <v>239</v>
-      </c>
-      <c r="E46" s="69">
+      <c r="C46" s="64"/>
+      <c r="D46" s="65" t="s">
+        <v>238</v>
+      </c>
+      <c r="E46" s="68">
         <v>0</v>
       </c>
-      <c r="F46" s="70">
+      <c r="F46" s="69">
         <v>0</v>
       </c>
-      <c r="G46" s="70">
+      <c r="G46" s="69">
         <f>+G45+E46-F46</f>
         <v>2082.6499999999996</v>
       </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B48" s="79" t="s">
-        <v>245</v>
-      </c>
-      <c r="C48" s="79"/>
-      <c r="D48" s="79"/>
-      <c r="E48" s="79"/>
-      <c r="F48" s="79"/>
-      <c r="G48" s="79"/>
+      <c r="B48" s="93" t="s">
+        <v>244</v>
+      </c>
+      <c r="C48" s="93"/>
+      <c r="D48" s="93"/>
+      <c r="E48" s="93"/>
+      <c r="F48" s="93"/>
+      <c r="G48" s="93"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="63" t="s">
+      <c r="B49" s="62" t="s">
+        <v>230</v>
+      </c>
+      <c r="C49" s="62" t="s">
+        <v>234</v>
+      </c>
+      <c r="D49" s="62" t="s">
+        <v>233</v>
+      </c>
+      <c r="E49" s="63" t="s">
         <v>231</v>
       </c>
-      <c r="C49" s="63" t="s">
+      <c r="F49" s="63" t="s">
+        <v>232</v>
+      </c>
+      <c r="G49" s="63" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="70">
+        <v>44105</v>
+      </c>
+      <c r="C50" s="62" t="s">
+        <v>243</v>
+      </c>
+      <c r="D50" s="62" t="s">
         <v>235</v>
       </c>
-      <c r="D49" s="63" t="s">
-        <v>234</v>
-      </c>
-      <c r="E49" s="64" t="s">
-        <v>232</v>
-      </c>
-      <c r="F49" s="64" t="s">
-        <v>233</v>
-      </c>
-      <c r="G49" s="64" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="71">
-        <v>44105</v>
-      </c>
-      <c r="C50" s="63" t="s">
-        <v>244</v>
-      </c>
-      <c r="D50" s="63" t="s">
-        <v>236</v>
-      </c>
-      <c r="E50" s="67">
+      <c r="E50" s="66">
         <f>1239.67*0.21</f>
         <v>260.33069999999998</v>
       </c>
-      <c r="F50" s="68">
+      <c r="F50" s="67">
         <v>0</v>
       </c>
-      <c r="G50" s="68">
+      <c r="G50" s="67">
         <f>+E50-F50</f>
         <v>260.33069999999998</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="71">
+      <c r="B51" s="70">
         <v>44114</v>
       </c>
-      <c r="C51" s="63" t="s">
-        <v>244</v>
-      </c>
-      <c r="D51" s="63" t="s">
-        <v>237</v>
-      </c>
-      <c r="E51" s="67">
+      <c r="C51" s="62" t="s">
+        <v>243</v>
+      </c>
+      <c r="D51" s="62" t="s">
+        <v>236</v>
+      </c>
+      <c r="E51" s="66">
         <v>0</v>
       </c>
-      <c r="F51" s="68">
+      <c r="F51" s="67">
         <f>165.29*0.21</f>
         <v>34.710899999999995</v>
       </c>
-      <c r="G51" s="68">
+      <c r="G51" s="67">
         <f>+G50+E51-F51</f>
         <v>225.6198</v>
       </c>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="71">
+      <c r="B52" s="70">
         <v>44115</v>
       </c>
-      <c r="C52" s="63" t="s">
-        <v>244</v>
-      </c>
-      <c r="D52" s="63" t="s">
-        <v>237</v>
-      </c>
-      <c r="E52" s="67">
+      <c r="C52" s="62" t="s">
+        <v>243</v>
+      </c>
+      <c r="D52" s="62" t="s">
+        <v>236</v>
+      </c>
+      <c r="E52" s="66">
         <v>0</v>
       </c>
-      <c r="F52" s="68">
+      <c r="F52" s="67">
         <f>247.93*0.21</f>
         <v>52.065300000000001</v>
       </c>
-      <c r="G52" s="68">
+      <c r="G52" s="67">
         <f t="shared" ref="G52:G56" si="3">+G51+E52-F52</f>
         <v>173.55449999999999</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="71">
+      <c r="B53" s="70">
         <v>44119</v>
       </c>
-      <c r="C53" s="63" t="s">
-        <v>244</v>
-      </c>
-      <c r="D53" s="63" t="s">
-        <v>238</v>
-      </c>
-      <c r="E53" s="67">
+      <c r="C53" s="62" t="s">
+        <v>243</v>
+      </c>
+      <c r="D53" s="62" t="s">
+        <v>237</v>
+      </c>
+      <c r="E53" s="66">
         <f>1239.67*0.21</f>
         <v>260.33069999999998</v>
       </c>
-      <c r="F53" s="68">
+      <c r="F53" s="67">
         <v>0</v>
       </c>
-      <c r="G53" s="68">
+      <c r="G53" s="67">
         <f t="shared" si="3"/>
         <v>433.88519999999994</v>
       </c>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="71">
+      <c r="B54" s="70">
         <v>44124</v>
       </c>
-      <c r="C54" s="63" t="s">
-        <v>244</v>
-      </c>
-      <c r="D54" s="63" t="s">
-        <v>238</v>
-      </c>
-      <c r="E54" s="67">
+      <c r="C54" s="62" t="s">
+        <v>243</v>
+      </c>
+      <c r="D54" s="62" t="s">
+        <v>237</v>
+      </c>
+      <c r="E54" s="66">
         <f>165.29*0.21</f>
         <v>34.710899999999995</v>
       </c>
-      <c r="F54" s="68">
+      <c r="F54" s="67">
         <v>0</v>
       </c>
-      <c r="G54" s="68">
+      <c r="G54" s="67">
         <f t="shared" si="3"/>
         <v>468.59609999999992</v>
       </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="71">
+      <c r="B55" s="70">
         <v>44129</v>
       </c>
-      <c r="C55" s="63" t="s">
-        <v>244</v>
-      </c>
-      <c r="D55" s="63" t="s">
-        <v>237</v>
-      </c>
-      <c r="E55" s="67">
+      <c r="C55" s="62" t="s">
+        <v>243</v>
+      </c>
+      <c r="D55" s="62" t="s">
+        <v>236</v>
+      </c>
+      <c r="E55" s="66">
         <v>0</v>
       </c>
-      <c r="F55" s="68">
+      <c r="F55" s="67">
         <f>231.4*0.21</f>
         <v>48.594000000000001</v>
       </c>
-      <c r="G55" s="68">
+      <c r="G55" s="67">
         <f t="shared" si="3"/>
         <v>420.00209999999993</v>
       </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="71">
+      <c r="B56" s="70">
         <v>44130</v>
       </c>
-      <c r="C56" s="63" t="s">
-        <v>244</v>
-      </c>
-      <c r="D56" s="63" t="s">
-        <v>238</v>
-      </c>
-      <c r="E56" s="67">
+      <c r="C56" s="62" t="s">
+        <v>243</v>
+      </c>
+      <c r="D56" s="62" t="s">
+        <v>237</v>
+      </c>
+      <c r="E56" s="66">
         <f>82.64*0.21</f>
         <v>17.354399999999998</v>
       </c>
-      <c r="F56" s="68">
+      <c r="F56" s="67">
         <v>0</v>
       </c>
-      <c r="G56" s="68">
+      <c r="G56" s="67">
         <f t="shared" si="3"/>
         <v>437.35649999999993</v>
       </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B57" s="72">
+      <c r="B57" s="71">
         <v>44130</v>
       </c>
-      <c r="C57" s="65"/>
-      <c r="D57" s="66" t="s">
-        <v>239</v>
-      </c>
-      <c r="E57" s="69">
+      <c r="C57" s="64"/>
+      <c r="D57" s="65" t="s">
+        <v>238</v>
+      </c>
+      <c r="E57" s="68">
         <v>0</v>
       </c>
-      <c r="F57" s="70">
+      <c r="F57" s="69">
         <v>0</v>
       </c>
-      <c r="G57" s="70">
+      <c r="G57" s="69">
         <f>+G56+E57-F57</f>
         <v>437.35649999999993</v>
       </c>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B59" s="79" t="s">
-        <v>241</v>
-      </c>
-      <c r="C59" s="79"/>
-      <c r="D59" s="79"/>
-      <c r="E59" s="79"/>
-      <c r="F59" s="79"/>
-      <c r="G59" s="79"/>
+      <c r="B59" s="93" t="s">
+        <v>240</v>
+      </c>
+      <c r="C59" s="93"/>
+      <c r="D59" s="93"/>
+      <c r="E59" s="93"/>
+      <c r="F59" s="93"/>
+      <c r="G59" s="93"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B60" s="63" t="s">
+      <c r="B60" s="62" t="s">
+        <v>230</v>
+      </c>
+      <c r="C60" s="62" t="s">
+        <v>234</v>
+      </c>
+      <c r="D60" s="62" t="s">
+        <v>233</v>
+      </c>
+      <c r="E60" s="63" t="s">
         <v>231</v>
       </c>
-      <c r="C60" s="63" t="s">
+      <c r="F60" s="63" t="s">
+        <v>232</v>
+      </c>
+      <c r="G60" s="63" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="70">
+        <v>44105</v>
+      </c>
+      <c r="C61" s="62" t="s">
+        <v>243</v>
+      </c>
+      <c r="D61" s="62" t="s">
         <v>235</v>
       </c>
-      <c r="D60" s="63" t="s">
-        <v>234</v>
-      </c>
-      <c r="E60" s="64" t="s">
-        <v>232</v>
-      </c>
-      <c r="F60" s="64" t="s">
-        <v>233</v>
-      </c>
-      <c r="G60" s="64" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B61" s="71">
-        <v>44105</v>
-      </c>
-      <c r="C61" s="63" t="s">
-        <v>244</v>
-      </c>
-      <c r="D61" s="63" t="s">
-        <v>236</v>
-      </c>
-      <c r="E61" s="67">
+      <c r="E61" s="66">
         <v>0</v>
       </c>
-      <c r="F61" s="68">
+      <c r="F61" s="67">
         <v>1500</v>
       </c>
-      <c r="G61" s="68">
+      <c r="G61" s="67">
         <f>+E61-F61</f>
         <v>-1500</v>
       </c>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B62" s="71">
+      <c r="B62" s="70">
         <v>44114</v>
       </c>
-      <c r="C62" s="63" t="s">
-        <v>244</v>
-      </c>
-      <c r="D62" s="63" t="s">
-        <v>237</v>
-      </c>
-      <c r="E62" s="67">
+      <c r="C62" s="62" t="s">
+        <v>243</v>
+      </c>
+      <c r="D62" s="62" t="s">
+        <v>236</v>
+      </c>
+      <c r="E62" s="66">
         <v>200</v>
       </c>
-      <c r="F62" s="68">
+      <c r="F62" s="67">
         <v>0</v>
       </c>
-      <c r="G62" s="68">
+      <c r="G62" s="67">
         <f>+G61+E62-F62</f>
         <v>-1300</v>
       </c>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B63" s="71">
+      <c r="B63" s="70">
         <v>44115</v>
       </c>
-      <c r="C63" s="63" t="s">
-        <v>244</v>
-      </c>
-      <c r="D63" s="63" t="s">
-        <v>237</v>
-      </c>
-      <c r="E63" s="67">
+      <c r="C63" s="62" t="s">
+        <v>243</v>
+      </c>
+      <c r="D63" s="62" t="s">
+        <v>236</v>
+      </c>
+      <c r="E63" s="66">
         <v>300</v>
       </c>
-      <c r="F63" s="68">
+      <c r="F63" s="67">
         <v>0</v>
       </c>
-      <c r="G63" s="68">
+      <c r="G63" s="67">
         <f t="shared" ref="G63:G67" si="4">+G62+E63-F63</f>
         <v>-1000</v>
       </c>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B64" s="71">
+      <c r="B64" s="70">
         <v>44119</v>
       </c>
-      <c r="C64" s="63" t="s">
-        <v>244</v>
-      </c>
-      <c r="D64" s="63" t="s">
-        <v>238</v>
-      </c>
-      <c r="E64" s="67">
+      <c r="C64" s="62" t="s">
+        <v>243</v>
+      </c>
+      <c r="D64" s="62" t="s">
+        <v>237</v>
+      </c>
+      <c r="E64" s="66">
         <v>0</v>
       </c>
-      <c r="F64" s="68">
+      <c r="F64" s="67">
         <v>1500</v>
       </c>
-      <c r="G64" s="68">
+      <c r="G64" s="67">
         <f t="shared" si="4"/>
         <v>-2500</v>
       </c>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B65" s="71">
+      <c r="B65" s="70">
         <v>44124</v>
       </c>
-      <c r="C65" s="63" t="s">
-        <v>244</v>
-      </c>
-      <c r="D65" s="63" t="s">
-        <v>238</v>
-      </c>
-      <c r="E65" s="67">
+      <c r="C65" s="62" t="s">
+        <v>243</v>
+      </c>
+      <c r="D65" s="62" t="s">
+        <v>237</v>
+      </c>
+      <c r="E65" s="66">
         <v>0</v>
       </c>
-      <c r="F65" s="68">
+      <c r="F65" s="67">
         <v>200</v>
       </c>
-      <c r="G65" s="68">
+      <c r="G65" s="67">
         <f t="shared" si="4"/>
         <v>-2700</v>
       </c>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B66" s="71">
+      <c r="B66" s="70">
         <v>44129</v>
       </c>
-      <c r="C66" s="63" t="s">
-        <v>244</v>
-      </c>
-      <c r="D66" s="63" t="s">
-        <v>237</v>
-      </c>
-      <c r="E66" s="67">
+      <c r="C66" s="62" t="s">
+        <v>243</v>
+      </c>
+      <c r="D66" s="62" t="s">
+        <v>236</v>
+      </c>
+      <c r="E66" s="66">
         <f>280</f>
         <v>280</v>
       </c>
-      <c r="F66" s="68">
+      <c r="F66" s="67">
         <v>0</v>
       </c>
-      <c r="G66" s="68">
+      <c r="G66" s="67">
         <f t="shared" si="4"/>
         <v>-2420</v>
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B67" s="71">
+      <c r="B67" s="70">
         <v>44130</v>
       </c>
-      <c r="C67" s="63" t="s">
-        <v>244</v>
-      </c>
-      <c r="D67" s="63" t="s">
-        <v>238</v>
-      </c>
-      <c r="E67" s="67">
+      <c r="C67" s="62" t="s">
+        <v>243</v>
+      </c>
+      <c r="D67" s="62" t="s">
+        <v>237</v>
+      </c>
+      <c r="E67" s="66">
         <v>0</v>
       </c>
-      <c r="F67" s="68">
+      <c r="F67" s="67">
         <v>100</v>
       </c>
-      <c r="G67" s="68">
+      <c r="G67" s="67">
         <f t="shared" si="4"/>
         <v>-2520</v>
       </c>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B68" s="72">
+      <c r="B68" s="71">
         <v>44130</v>
       </c>
-      <c r="C68" s="65"/>
-      <c r="D68" s="66" t="s">
-        <v>239</v>
-      </c>
-      <c r="E68" s="69">
+      <c r="C68" s="64"/>
+      <c r="D68" s="65" t="s">
+        <v>238</v>
+      </c>
+      <c r="E68" s="68">
         <v>0</v>
       </c>
-      <c r="F68" s="70">
+      <c r="F68" s="69">
         <v>0</v>
       </c>
-      <c r="G68" s="70">
+      <c r="G68" s="69">
         <f>+G67+E68-F68</f>
         <v>-2520</v>
       </c>

--- a/Eugenio/EXCEL.xlsx
+++ b/Eugenio/EXCEL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="4605" windowWidth="20640" windowHeight="10050" activeTab="4"/>
+    <workbookView xWindow="390" yWindow="4605" windowWidth="20640" windowHeight="10050" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="COMPRAS" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="305">
   <si>
     <t>CANT</t>
   </si>
@@ -966,6 +966,12 @@
   </si>
   <si>
     <t>if idProducto =&gt; Exista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saldo </t>
+  </si>
+  <si>
+    <t>SaldoAnt</t>
   </si>
 </sst>
 </file>
@@ -1249,7 +1255,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1474,6 +1480,10 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5256,7 +5266,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -6874,8 +6884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N68"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M39" sqref="M39"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6887,7 +6897,7 @@
     <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
@@ -7670,7 +7680,10 @@
         <v>232</v>
       </c>
       <c r="G38" s="63" t="s">
-        <v>223</v>
+        <v>303</v>
+      </c>
+      <c r="H38" t="s">
+        <v>304</v>
       </c>
       <c r="M38" s="52">
         <v>509</v>
@@ -7690,14 +7703,17 @@
         <v>235</v>
       </c>
       <c r="E39" s="66">
-        <v>1239.67</v>
+        <v>0</v>
       </c>
       <c r="F39" s="67">
+        <v>156.19800000000001</v>
+      </c>
+      <c r="G39" s="67">
+        <f>+E39+H39-F39</f>
+        <v>-156.19800000000001</v>
+      </c>
+      <c r="H39">
         <v>0</v>
-      </c>
-      <c r="G39" s="67">
-        <f>+E39-F39</f>
-        <v>1239.67</v>
       </c>
       <c r="M39" s="52">
         <v>513</v>
@@ -7716,16 +7732,19 @@
       <c r="D40" s="62" t="s">
         <v>236</v>
       </c>
-      <c r="E40" s="66">
-        <v>0</v>
-      </c>
+      <c r="E40" s="66"/>
       <c r="F40" s="67">
-        <v>165.29</v>
+        <v>71.293599999999998</v>
       </c>
       <c r="G40" s="67">
-        <f>+G39+E40-F40</f>
-        <v>1074.3800000000001</v>
-      </c>
+        <f t="shared" ref="G40:G46" si="2">+E40+H40-F40</f>
+        <v>-227.49160000000001</v>
+      </c>
+      <c r="H40" s="97">
+        <f>+G39</f>
+        <v>-156.19800000000001</v>
+      </c>
+      <c r="I40" s="98"/>
       <c r="M40" s="50">
         <v>515</v>
       </c>
@@ -7743,15 +7762,17 @@
       <c r="D41" s="62" t="s">
         <v>236</v>
       </c>
-      <c r="E41" s="66">
+      <c r="E41" s="66"/>
+      <c r="F41" s="67">
         <v>0</v>
       </c>
-      <c r="F41" s="67">
-        <v>247.93</v>
-      </c>
       <c r="G41" s="67">
-        <f t="shared" ref="G41:G45" si="2">+G40+E41-F41</f>
-        <v>826.45</v>
+        <f t="shared" si="2"/>
+        <v>-227.49160000000001</v>
+      </c>
+      <c r="H41" s="97">
+        <f t="shared" ref="H41:H45" si="3">+G40</f>
+        <v>-227.49160000000001</v>
       </c>
       <c r="M41" s="50">
         <v>516</v>
@@ -7771,14 +7792,18 @@
         <v>237</v>
       </c>
       <c r="E42" s="66">
-        <v>1239.67</v>
+        <v>0</v>
       </c>
       <c r="F42" s="67">
         <v>0</v>
       </c>
       <c r="G42" s="67">
         <f t="shared" si="2"/>
-        <v>2066.12</v>
+        <v>-227.49160000000001</v>
+      </c>
+      <c r="H42" s="97">
+        <f t="shared" si="3"/>
+        <v>-227.49160000000001</v>
       </c>
     </row>
     <row r="43" spans="2:14" x14ac:dyDescent="0.25">
@@ -7792,14 +7817,18 @@
         <v>237</v>
       </c>
       <c r="E43" s="66">
-        <v>165.29</v>
+        <v>0</v>
       </c>
       <c r="F43" s="67">
         <v>0</v>
       </c>
       <c r="G43" s="67">
         <f t="shared" si="2"/>
-        <v>2231.41</v>
+        <v>-227.49160000000001</v>
+      </c>
+      <c r="H43" s="97">
+        <f t="shared" si="3"/>
+        <v>-227.49160000000001</v>
       </c>
     </row>
     <row r="44" spans="2:14" x14ac:dyDescent="0.25">
@@ -7816,11 +7845,15 @@
         <v>0</v>
       </c>
       <c r="F44" s="67">
-        <v>231.4</v>
+        <v>0</v>
       </c>
       <c r="G44" s="67">
         <f t="shared" si="2"/>
-        <v>2000.0099999999998</v>
+        <v>-227.49160000000001</v>
+      </c>
+      <c r="H44" s="97">
+        <f t="shared" si="3"/>
+        <v>-227.49160000000001</v>
       </c>
     </row>
     <row r="45" spans="2:14" x14ac:dyDescent="0.25">
@@ -7834,14 +7867,18 @@
         <v>237</v>
       </c>
       <c r="E45" s="66">
-        <v>82.64</v>
+        <v>0</v>
       </c>
       <c r="F45" s="67">
         <v>0</v>
       </c>
       <c r="G45" s="67">
         <f t="shared" si="2"/>
-        <v>2082.6499999999996</v>
+        <v>-227.49160000000001</v>
+      </c>
+      <c r="H45" s="97">
+        <f t="shared" si="3"/>
+        <v>-227.49160000000001</v>
       </c>
     </row>
     <row r="46" spans="2:14" x14ac:dyDescent="0.25">
@@ -7858,9 +7895,13 @@
       <c r="F46" s="69">
         <v>0</v>
       </c>
-      <c r="G46" s="69">
-        <f>+G45+E46-F46</f>
-        <v>2082.6499999999996</v>
+      <c r="G46" s="67">
+        <f t="shared" si="2"/>
+        <v>-227.49160000000001</v>
+      </c>
+      <c r="H46" s="97">
+        <f>+G45</f>
+        <v>-227.49160000000001</v>
       </c>
     </row>
     <row r="48" spans="2:14" x14ac:dyDescent="0.25">
@@ -7955,7 +7996,7 @@
         <v>52.065300000000001</v>
       </c>
       <c r="G52" s="67">
-        <f t="shared" ref="G52:G56" si="3">+G51+E52-F52</f>
+        <f t="shared" ref="G52:G56" si="4">+G51+E52-F52</f>
         <v>173.55449999999999</v>
       </c>
     </row>
@@ -7977,7 +8018,7 @@
         <v>0</v>
       </c>
       <c r="G53" s="67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>433.88519999999994</v>
       </c>
     </row>
@@ -7999,7 +8040,7 @@
         <v>0</v>
       </c>
       <c r="G54" s="67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>468.59609999999992</v>
       </c>
     </row>
@@ -8021,7 +8062,7 @@
         <v>48.594000000000001</v>
       </c>
       <c r="G55" s="67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>420.00209999999993</v>
       </c>
     </row>
@@ -8043,7 +8084,7 @@
         <v>0</v>
       </c>
       <c r="G56" s="67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>437.35649999999993</v>
       </c>
     </row>
@@ -8155,7 +8196,7 @@
         <v>0</v>
       </c>
       <c r="G63" s="67">
-        <f t="shared" ref="G63:G67" si="4">+G62+E63-F63</f>
+        <f t="shared" ref="G63:G67" si="5">+G62+E63-F63</f>
         <v>-1000</v>
       </c>
     </row>
@@ -8176,7 +8217,7 @@
         <v>1500</v>
       </c>
       <c r="G64" s="67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2500</v>
       </c>
     </row>
@@ -8197,7 +8238,7 @@
         <v>200</v>
       </c>
       <c r="G65" s="67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2700</v>
       </c>
     </row>
@@ -8219,7 +8260,7 @@
         <v>0</v>
       </c>
       <c r="G66" s="67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2420</v>
       </c>
     </row>
@@ -8240,7 +8281,7 @@
         <v>100</v>
       </c>
       <c r="G67" s="67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-2520</v>
       </c>
     </row>
